--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CED41E-EF65-43E3-90F1-0738A29B4578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9138410-998F-40E5-81B6-6A4599D19C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -67,98 +67,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【1】 [TwoSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/TwoSum.java) &lt;br&gt; 【9】 [PalindromeNumber](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/PalindromeNumber.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【2】 [AddTwoNumbers](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/AddTwoNumbers.java)</t>
-  </si>
-  <si>
-    <t>【3】 [LongestSubstringWithoutRepeatingCharacters](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LongestSubstringWithoutRepeatingCharacters.java)</t>
-  </si>
-  <si>
-    <t>【6】 [ZigzagConversion](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ZigzagConversion.java) &lt;br&gt; 【4】 [MedianOfTwoSortedArrays](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MedianOfTwoSortedArrays.java)</t>
-  </si>
-  <si>
-    <t>【5】 [LongestPalindromicSubstring](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LongestPalindromicSubstring.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【13】 [RomanToInteger](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RomanToInteger.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【7】 [ReverseInteger](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ReverseInteger.java)</t>
-  </si>
-  <si>
-    <t>【8】 [StringToIntegerAtoi](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/StringToIntegerAtoi.java)</t>
-  </si>
-  <si>
-    <t>【11】 [ContainerWithMostWater](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ContainerWithMostWater.java) &lt;br&gt; 【12】 [IntegerToRoman](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/IntegerToRoman.java) &lt;br&gt; 【14】 [LongestCommonPrefix](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LongestCommonPrefix.java) &lt;br&gt; 【15】[ThreeSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ThreeSum.java)</t>
-  </si>
-  <si>
     <t>间隔时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【10】 [RegularExpressionMatching](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RegularExpressionMatching.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【16】 [ThreeSumClosest](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ThreeSumClosest.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;【17】 [LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LetterCombinationsOfAPhoneNumber.java) &lt;br&gt; </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt; 【18】 [FourSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/FourSum.java) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt; 【19】 [RemoveNthNodeFromEndOfList](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RemoveNthNodeFromEndOfList.java) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;br&gt; 【20】 [ValidParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ValidParentheses.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;br&gt; 【21】 [MergeTwoSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeTwoSortedLists.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【16】 [ThreeSumClosest](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ThreeSumClosest.java)&lt;br&gt;【17】 [LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LetterCombinationsOfAPhoneNumber.java) &lt;br&gt; &lt;br&gt; 【18】 [FourSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/FourSum.java) &lt;br&gt; 【19】 [RemoveNthNodeFromEndOfList](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RemoveNthNodeFromEndOfList.java) &lt;br&gt; 【20】 [ValidParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ValidParentheses.java)&lt;br&gt; 【21】 [MergeTwoSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeTwoSortedLists.java)</t>
-  </si>
-  <si>
-    <t>&lt;br&gt; 【22】[GenerateParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/GenerateParentheses.java)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;br&gt; </t>
   </si>
   <si>
-    <t>【</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>】[</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>函数名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,26 +82,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;br&gt; 【23】[MergeKSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeKSortedLists.java)</t>
-  </si>
-  <si>
-    <t>SwapNodesInPairs</t>
-  </si>
-  <si>
-    <t>ReverseNodesInKGroup</t>
-  </si>
-  <si>
-    <t>](https://github.com/behappy01/leetcode/blob/main/Temp/leetcode/editor/cn/</t>
-  </si>
-  <si>
-    <t>](https://github.com/behappy02/leetcode/blob/main/Temp/leetcode/editor/cn/</t>
+    <t>https://github.com/behappy00/leetcode/blob/main/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>P1_TwoSum</t>
+  </si>
+  <si>
+    <t>P3_LongestSubstringWithoutRepeatingCharacters</t>
+  </si>
+  <si>
+    <t>P4_MedianOfTwoSortedArrays</t>
+  </si>
+  <si>
+    <t>P21_MergeTwoSortedLists</t>
+  </si>
+  <si>
+    <t>P20_ValidParentheses</t>
+  </si>
+  <si>
+    <t>P19_RemoveNthNodeFromEndOfList</t>
+  </si>
+  <si>
+    <t>P18_FourSum</t>
+  </si>
+  <si>
+    <t>P16_ThreeSumClosest</t>
+  </si>
+  <si>
+    <t>P17_LetterCombinationsOfAPhoneNumber</t>
+  </si>
+  <si>
+    <t>P15_ThreeSum</t>
+  </si>
+  <si>
+    <t>P14_LongestCommonPrefix</t>
+  </si>
+  <si>
+    <t>P13_RomanToInteger</t>
+  </si>
+  <si>
+    <t>P12_IntegerToRoman</t>
+  </si>
+  <si>
+    <t>P11_ContainerWithMostWater</t>
+  </si>
+  <si>
+    <t>P10_RegularExpressionMatching</t>
+  </si>
+  <si>
+    <t>P9_PalindromeNumber</t>
+  </si>
+  <si>
+    <t>P7_ReverseInteger</t>
+  </si>
+  <si>
+    <t>P8_StringToIntegerAtoi</t>
+  </si>
+  <si>
+    <t>P5_LongestPalindromicSubstring</t>
+  </si>
+  <si>
+    <t>P2_AddTwoNumbers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</t>
+  </si>
+  <si>
+    <t>[P1_TwoSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P1_TwoSum.java) &lt;br&gt; [P9_PalindromeNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P9_PalindromeNumber.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P2_AddTwoNumbers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P2_AddTwoNumbers.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P3_LongestSubstringWithoutRepeatingCharacters](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P3_LongestSubstringWithoutRepeatingCharacters.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P5_LongestPalindromicSubstring](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P5_LongestPalindromicSubstring.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P13_RomanToInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P13_RomanToInteger.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6_ZigzagConversion</t>
+  </si>
+  <si>
+    <t>[P4_MedianOfTwoSortedArrays](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P4_MedianOfTwoSortedArrays.java)&lt;br&gt; [P6_ZigzagConversion](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P6_ZigzagConversion.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P7_ReverseInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P7_ReverseInteger.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P8_StringToIntegerAtoi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P8_StringToIntegerAtoi.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P10_RegularExpressionMatching](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P10_RegularExpressionMatching.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +268,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -285,12 +336,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -594,16 +645,16 @@
     <col min="11" max="11" width="3.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.06640625" style="1"/>
     <col min="13" max="13" width="3.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="49" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -638,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -685,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -695,8 +746,8 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -726,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -736,8 +787,8 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -767,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -777,8 +828,8 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
@@ -809,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -819,8 +870,8 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
@@ -851,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -861,8 +912,8 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -893,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -903,8 +954,8 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -936,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -946,8 +997,8 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -979,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -989,8 +1040,8 @@
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -1022,8 +1073,11 @@
       <c r="M11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1033,8 +1087,8 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -1066,8 +1120,11 @@
       <c r="M12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -1110,8 +1167,11 @@
       <c r="M13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1">
+      <c r="N13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1122,13 +1182,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="7">
-        <f>LEN(D14)-LEN(SUBSTITUTE(D14,"【",""))</f>
         <v>6</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1155,8 +1214,11 @@
       <c r="M14" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1507,97 +1569,98 @@
       <c r="M22" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="80" customHeight="1">
-      <c r="D25" s="10" t="str">
-        <f>_xlfn.CONCAT(D27,D28,D29,D30,D31,D32,D33)</f>
-        <v>【16】 [ThreeSumClosest](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ThreeSumClosest.java)&lt;br&gt;【17】 [LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LetterCombinationsOfAPhoneNumber.java) &lt;br&gt; &lt;br&gt; 【18】 [FourSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/FourSum.java) &lt;br&gt; 【19】 [RemoveNthNodeFromEndOfList](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RemoveNthNodeFromEndOfList.java) &lt;br&gt; 【20】 [ValidParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ValidParentheses.java)&lt;br&gt; 【21】 [MergeTwoSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeTwoSortedLists.java)&lt;br&gt; 【22】[GenerateParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/GenerateParentheses.java)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="D27" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="D28" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="D29" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="D30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="D32" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="6" t="s">
-        <v>28</v>
+      <c r="N22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="str">
+        <f>_xlfn.CONCAT(N11,N12,N13,N14)</f>
+        <v>&lt;br&gt; [P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="D27" s="6" t="str">
+        <f>_xlfn.CONCAT(N22,N23,N24,N25,N26,N27)</f>
+        <v>&lt;br&gt; [P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{BFE7BBCB-4F25-4878-BDAB-1ED16EE200BE}"/>
+    <hyperlink ref="D1" r:id="rId1" display="https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/" xr:uid="{BFE7BBCB-4F25-4878-BDAB-1ED16EE200BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1606,294 +1669,610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="3.73046875" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="4.19921875" customWidth="1"/>
-    <col min="5" max="7" width="5.59765625" customWidth="1"/>
-    <col min="8" max="8" width="125.59765625" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="34.06640625" customWidth="1"/>
+    <col min="4" max="5" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="125.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f t="shared" ref="E2:E18" si="0">C2</f>
+        <v>P1_TwoSum</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P2_AddTwoNumbers</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P4_MedianOfTwoSortedArrays</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P5_LongestPalindromicSubstring</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P6_ZigzagConversion</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P7_ReverseInteger</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1">
-      <c r="A2" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P8_StringToIntegerAtoi</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P9_PalindromeNumber</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P10_RegularExpressionMatching</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P11_ContainerWithMostWater</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P12_IntegerToRoman</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P13_RomanToInteger</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P14_LongestCommonPrefix</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P15_ThreeSum</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P16_ThreeSumClosest</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="15" t="str">
-        <f>E3</f>
-        <v>ReverseNodesInKGroup</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1">
-      <c r="A4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="15">
-        <v>26</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1">
-      <c r="A5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="18">
-        <v>27</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" ref="G5:G6" si="0">E5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="15">
-        <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="104.35" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="10" t="str">
-        <f>_xlfn.CONCAT(H9,H10,H11,H12,H13,H14,H15,H16,H17)</f>
-        <v>【16】 [ThreeSumClosest](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ThreeSumClosest.java)&lt;br&gt;【17】 [LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/LetterCombinationsOfAPhoneNumber.java) &lt;br&gt; &lt;br&gt; 【18】 [FourSum](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/FourSum.java) &lt;br&gt; 【19】 [RemoveNthNodeFromEndOfList](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/RemoveNthNodeFromEndOfList.java) &lt;br&gt; 【20】 [ValidParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ValidParentheses.java)&lt;br&gt; 【21】 [MergeTwoSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeTwoSortedLists.java)&lt;br&gt; 【22】[GenerateParentheses](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/GenerateParentheses.java)&lt;br&gt; 【23】[MergeKSortedLists](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/MergeKSortedLists.java)&lt;br&gt; 【24】[SwapNodesInPairs](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/SwapNodesInPairs.java)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="6" t="s">
+      <c r="D18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P17_LetterCombinationsOfAPhoneNumber</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>C19</f>
+        <v>P18_FourSum</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="H16" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="str">
-        <f>_xlfn.CONCAT(A2,B2,C2,D2,E2,F2,G2,H2)</f>
-        <v>&lt;br&gt; 【24】[SwapNodesInPairs](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/SwapNodesInPairs.java)</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="str">
-        <f t="shared" ref="H18:H19" si="1">_xlfn.CONCAT(A3,B3,C3,D3,E3,F3,G3,H3)</f>
-        <v>&lt;br&gt; 【25】[ReverseNodesInKGroup](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/ReverseNodesInKGroup.java)</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="str">
+      <c r="D20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f t="shared" ref="E20:E22" si="1">C20</f>
+        <v>P19_RemoveNthNodeFromEndOfList</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1">
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;br&gt; 【26】[](https://github.com/behappy00/leetcode/blob/main/Temp/leetcode/editor/cn/0.java)</v>
+        <v>P20_ValidParentheses</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>P21_MergeTwoSortedLists</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" t="str">
+        <f>_xlfn.CONCAT(A2,B2,C2,D2,E2,F2)</f>
+        <v>&lt;br&gt; [P1_TwoSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P1_TwoSum.java)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25" t="str">
+        <f>_xlfn.CONCAT(A3,B3,C3,D3,E3,F3)</f>
+        <v>&lt;br&gt; [P2_AddTwoNumbers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P2_AddTwoNumbers.java)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" t="str">
+        <f>_xlfn.CONCAT(A4,B4,C4,D4,E4,F4)</f>
+        <v>&lt;br&gt; [P3_LongestSubstringWithoutRepeatingCharacters](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P3_LongestSubstringWithoutRepeatingCharacters.java)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27" t="str">
+        <f>_xlfn.CONCAT(A5,B5,C5,D5,E5,F5)</f>
+        <v>&lt;br&gt; [P4_MedianOfTwoSortedArrays](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P4_MedianOfTwoSortedArrays.java)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28" t="str">
+        <f>_xlfn.CONCAT(A6,B6,C6,D6,E6,F6)</f>
+        <v>&lt;br&gt; [P5_LongestPalindromicSubstring](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P5_LongestPalindromicSubstring.java)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29" t="str">
+        <f>_xlfn.CONCAT(A7,B7,C7,D7,E7,F7)</f>
+        <v>&lt;br&gt; [P6_ZigzagConversion](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P6_ZigzagConversion.java)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" t="str">
+        <f>_xlfn.CONCAT(A8,B8,C8,D8,E8,F8)</f>
+        <v>&lt;br&gt; [P7_ReverseInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P7_ReverseInteger.java)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="F31" t="str">
+        <f>_xlfn.CONCAT(A9,B9,C9,D9,E9,F9)</f>
+        <v>&lt;br&gt; [P8_StringToIntegerAtoi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P8_StringToIntegerAtoi.java)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT(A10,B10,C10,D10,E10,F10)</f>
+        <v>&lt;br&gt; [P9_PalindromeNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P9_PalindromeNumber.java)</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="str">
+        <f>_xlfn.CONCAT(A11,B11,C11,D11,E11,F11)</f>
+        <v>&lt;br&gt; [P10_RegularExpressionMatching](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P10_RegularExpressionMatching.java)</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="str">
+        <f>_xlfn.CONCAT(A12,B12,C12,D12,E12,F12)</f>
+        <v>&lt;br&gt; [P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="str">
+        <f>_xlfn.CONCAT(A13,B13,C13,D13,E13,F13)</f>
+        <v>&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="str">
+        <f>_xlfn.CONCAT(A14,B14,C14,D14,E14,F14)</f>
+        <v>&lt;br&gt; [P13_RomanToInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P13_RomanToInteger.java)</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="str">
+        <f>_xlfn.CONCAT(A15,B15,C15,D15,E15,F15)</f>
+        <v>&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="str">
+        <f>_xlfn.CONCAT(A16,B16,C16,D16,E16,F16)</f>
+        <v>&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="str">
+        <f>_xlfn.CONCAT(A17,B17,C17,D17,E17,F17)</f>
+        <v>&lt;br&gt; [P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="str">
+        <f>_xlfn.CONCAT(A18,B18,C18,D18,E18,F18)</f>
+        <v>&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="str">
+        <f>_xlfn.CONCAT(A19,B19,C19,D19,E19,F19)</f>
+        <v>&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" t="str">
+        <f>_xlfn.CONCAT(A20,B20,C20,D20,E20,F20)</f>
+        <v>&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="str">
+        <f>_xlfn.CONCAT(A21,B21,C21,D21,E21,F21)</f>
+        <v>&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="str">
+        <f>_xlfn.CONCAT(A22,B22,C22,D22,E22,F22)</f>
+        <v>&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:G15"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9138410-998F-40E5-81B6-6A4599D19C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0564DA-0CBC-42C0-B64E-2D2C5FE780D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="已完成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -177,9 +178,6 @@
     <t>&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)</t>
   </si>
   <si>
-    <t>&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)</t>
-  </si>
-  <si>
     <t>&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</t>
   </si>
   <si>
@@ -228,6 +226,74 @@
   <si>
     <t>[P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P1_TwoSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P1_TwoSum.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P2_AddTwoNumbers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P2_AddTwoNumbers.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P3_LongestSubstringWithoutRepeatingCharacters](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P3_LongestSubstringWithoutRepeatingCharacters.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P4_MedianOfTwoSortedArrays](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P4_MedianOfTwoSortedArrays.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P5_LongestPalindromicSubstring](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P5_LongestPalindromicSubstring.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P6_ZigzagConversion](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P6_ZigzagConversion.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P7_ReverseInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P7_ReverseInteger.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P8_StringToIntegerAtoi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P8_StringToIntegerAtoi.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P9_PalindromeNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P9_PalindromeNumber.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P10_RegularExpressionMatching](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P10_RegularExpressionMatching.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P13_RomanToInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P13_RomanToInteger.java)</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22_GenerateParentheses</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</t>
+  </si>
+  <si>
+    <t>P23_MergeKSortedLists</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</t>
+  </si>
+  <si>
+    <t>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P26_RemoveDuplicatesFromSortedArray</t>
+  </si>
+  <si>
+    <t>P27_RemoveElement</t>
+  </si>
+  <si>
+    <t>P28_ImplementStrstr</t>
+  </si>
+  <si>
+    <t>P24_SwapNodesInPairs</t>
+  </si>
+  <si>
+    <t>P25_ReverseNodesInKGroup</t>
   </si>
 </sst>
 </file>
@@ -276,12 +342,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -312,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +421,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -747,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -788,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -829,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
@@ -871,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
@@ -913,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -955,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -998,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -1041,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -1073,9 +1154,6 @@
       <c r="M11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
@@ -1088,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -1120,9 +1198,6 @@
       <c r="M12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -1135,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -1167,9 +1242,7 @@
       <c r="M13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
@@ -1182,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>5</v>
@@ -1214,9 +1287,7 @@
       <c r="M14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
@@ -1224,25 +1295,27 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ref="B15:B22" ca="1" si="3">TODAY()</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <f>LEN(D15)-LEN(SUBSTITUTE(D15,"【",""))</f>
-        <v>0</v>
+        <f>IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ref="H15:H17" si="4">F15+H14</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -1256,7 +1329,7 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>5</v>
@@ -1268,7 +1341,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1278,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:F22" si="5">LEN(D16)-LEN(SUBSTITUTE(D16,"【",""))</f>
+        <f t="shared" ref="F16:F22" si="5">IF(D16&lt;&gt;"",(LEN(D16)-LEN(SUBSTITUTE(D16,"&lt;br&gt;","")))/4+1,0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1286,7 +1359,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -1300,19 +1373,19 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" ref="L16:L22" ca="1" si="7">DATEDIF($B$4,B16,"d")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1330,7 +1403,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>5</v>
@@ -1344,19 +1417,19 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -1374,7 +1447,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ref="H18:H22" si="8">F18+H17</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -1388,19 +1461,19 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -1418,7 +1491,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -1432,19 +1505,19 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -1462,7 +1535,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -1476,19 +1549,19 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -1506,7 +1579,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -1520,19 +1593,19 @@
       </c>
       <c r="L21" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1550,7 +1623,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -1564,16 +1637,13 @@
       </c>
       <c r="L22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1587,11 +1657,8 @@
       <c r="K23" s="10"/>
       <c r="L23" s="12"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1605,15 +1672,15 @@
       <c r="K24" s="10"/>
       <c r="L24" s="12"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="18" t="str">
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28))</f>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
@@ -1623,17 +1690,13 @@
       <c r="K25" s="10"/>
       <c r="L25" s="12"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="11" t="str">
-        <f>_xlfn.CONCAT(N11,N12,N13,N14)</f>
-        <v>&lt;br&gt; [P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</v>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="12"/>
@@ -1644,18 +1707,20 @@
       <c r="K26" s="10"/>
       <c r="L26" s="12"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="D27" s="6" t="str">
-        <f>_xlfn.CONCAT(N22,N23,N24,N25,N26,N27)</f>
-        <v>&lt;br&gt; [P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="D27" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1669,610 +1734,1419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" customWidth="1"/>
-    <col min="2" max="2" width="4.19921875" customWidth="1"/>
-    <col min="3" max="3" width="34.06640625" customWidth="1"/>
-    <col min="4" max="5" width="5.59765625" customWidth="1"/>
-    <col min="6" max="6" width="125.59765625" customWidth="1"/>
+    <col min="2" max="2" width="3.73046875" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="6" width="5.59765625" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" customWidth="1"/>
+    <col min="8" max="8" width="135.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>24</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14" t="str">
-        <f t="shared" ref="E2:E18" si="0">C2</f>
-        <v>P1_TwoSum</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f>D2</f>
+        <v>P24_SwapNodesInPairs</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f>_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
+        <v>&lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>25</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="str">
+        <f>D3</f>
+        <v>P25_ReverseNodesInKGroup</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f>_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
+        <v>&lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f>D4</f>
+        <v>P26_RemoveDuplicatesFromSortedArray</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f>_xlfn.CONCAT(B4,C4,D4,E4,F4,G4)</f>
+        <v>&lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f>D5</f>
+        <v>P27_RemoveElement</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f>_xlfn.CONCAT(B5,C5,D5,E5,F5,G5)</f>
+        <v>&lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f>D6</f>
+        <v>P28_ImplementStrstr</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f>_xlfn.CONCAT(B6,C6,D6,E6,F6,G6)</f>
+        <v>&lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f>_xlfn.CONCAT(B7,C7,D7,E7,F7,G7)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f>_xlfn.CONCAT(B8,C8,D8,E8,F8,G8)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f>_xlfn.CONCAT(B9,C9,D9,E9,F9,G9)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f>_xlfn.CONCAT(B10,C10,D10,E10,F10,G10)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f>_xlfn.CONCAT(B11,C11,D11,E11,F11,G11)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f>_xlfn.CONCAT(B12,C12,D12,E12,F12,G12)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>35</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P2_AddTwoNumbers</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P4_MedianOfTwoSortedArrays</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P5_LongestPalindromicSubstring</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P6_ZigzagConversion</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P7_ReverseInteger</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P8_StringToIntegerAtoi</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P9_PalindromeNumber</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P10_RegularExpressionMatching</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P11_ContainerWithMostWater</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P12_IntegerToRoman</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f>_xlfn.CONCAT(B13,C13,D13,E13,F13,G13)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>36</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P13_RomanToInteger</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f>_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P14_LongestCommonPrefix</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f>_xlfn.CONCAT(B15,C15,D15,E15,F15,G15)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>38</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P15_ThreeSum</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f>_xlfn.CONCAT(B16,C16,D16,E16,F16,G16)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>39</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P16_ThreeSumClosest</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1">
-      <c r="A18" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f>_xlfn.CONCAT(B17,C17,D17,E17,F17,G17)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>40</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>P17_LetterCombinationsOfAPhoneNumber</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f>_xlfn.CONCAT(B18,C18,D18,E18,F18,G18)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="14" t="str">
-        <f>C19</f>
-        <v>P18_FourSum</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1">
-      <c r="A20" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f>_xlfn.CONCAT(B19,C19,D19,E19,F19,G19)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>42</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f t="shared" ref="E20:E22" si="1">C20</f>
-        <v>P19_RemoveNthNodeFromEndOfList</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1">
-      <c r="A21" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f>_xlfn.CONCAT(B20,C20,D20,E20,F20,G20)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>43</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>P20_ValidParentheses</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="14" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f>_xlfn.CONCAT(B21,C21,D21,E21,F21,G21)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>44</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>P21_MergeTwoSortedLists</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" t="str">
-        <f>_xlfn.CONCAT(A2,B2,C2,D2,E2,F2)</f>
-        <v>&lt;br&gt; [P1_TwoSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P1_TwoSum.java)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25" t="str">
-        <f>_xlfn.CONCAT(A3,B3,C3,D3,E3,F3)</f>
-        <v>&lt;br&gt; [P2_AddTwoNumbers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P2_AddTwoNumbers.java)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="str">
-        <f>_xlfn.CONCAT(A4,B4,C4,D4,E4,F4)</f>
-        <v>&lt;br&gt; [P3_LongestSubstringWithoutRepeatingCharacters](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P3_LongestSubstringWithoutRepeatingCharacters.java)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" t="str">
-        <f>_xlfn.CONCAT(A5,B5,C5,D5,E5,F5)</f>
-        <v>&lt;br&gt; [P4_MedianOfTwoSortedArrays](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P4_MedianOfTwoSortedArrays.java)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="F28" t="str">
-        <f>_xlfn.CONCAT(A6,B6,C6,D6,E6,F6)</f>
-        <v>&lt;br&gt; [P5_LongestPalindromicSubstring](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P5_LongestPalindromicSubstring.java)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="F29" t="str">
-        <f>_xlfn.CONCAT(A7,B7,C7,D7,E7,F7)</f>
-        <v>&lt;br&gt; [P6_ZigzagConversion](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P6_ZigzagConversion.java)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="F30" t="str">
-        <f>_xlfn.CONCAT(A8,B8,C8,D8,E8,F8)</f>
-        <v>&lt;br&gt; [P7_ReverseInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P7_ReverseInteger.java)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31" t="str">
-        <f>_xlfn.CONCAT(A9,B9,C9,D9,E9,F9)</f>
-        <v>&lt;br&gt; [P8_StringToIntegerAtoi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P8_StringToIntegerAtoi.java)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32" t="str">
-        <f>_xlfn.CONCAT(A10,B10,C10,D10,E10,F10)</f>
-        <v>&lt;br&gt; [P9_PalindromeNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P9_PalindromeNumber.java)</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="str">
-        <f>_xlfn.CONCAT(A11,B11,C11,D11,E11,F11)</f>
-        <v>&lt;br&gt; [P10_RegularExpressionMatching](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P10_RegularExpressionMatching.java)</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="str">
-        <f>_xlfn.CONCAT(A12,B12,C12,D12,E12,F12)</f>
-        <v>&lt;br&gt; [P11_ContainerWithMostWater](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P11_ContainerWithMostWater.java)</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" t="str">
-        <f>_xlfn.CONCAT(A13,B13,C13,D13,E13,F13)</f>
-        <v>&lt;br&gt; [P12_IntegerToRoman](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P12_IntegerToRoman.java)</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="str">
-        <f>_xlfn.CONCAT(A14,B14,C14,D14,E14,F14)</f>
-        <v>&lt;br&gt; [P13_RomanToInteger](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P13_RomanToInteger.java)</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" t="str">
-        <f>_xlfn.CONCAT(A15,B15,C15,D15,E15,F15)</f>
-        <v>&lt;br&gt; [P14_LongestCommonPrefix](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P14_LongestCommonPrefix.java)</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" t="str">
-        <f>_xlfn.CONCAT(A16,B16,C16,D16,E16,F16)</f>
-        <v>&lt;br&gt; [P15_ThreeSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P15_ThreeSum.java)</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" t="str">
-        <f>_xlfn.CONCAT(A17,B17,C17,D17,E17,F17)</f>
-        <v>&lt;br&gt; [P16_ThreeSumClosest](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P16_ThreeSumClosest.java)</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" t="str">
-        <f>_xlfn.CONCAT(A18,B18,C18,D18,E18,F18)</f>
-        <v>&lt;br&gt; [P17_LetterCombinationsOfAPhoneNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P17_LetterCombinationsOfAPhoneNumber.java)</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" t="str">
-        <f>_xlfn.CONCAT(A19,B19,C19,D19,E19,F19)</f>
-        <v>&lt;br&gt; [P18_FourSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P18_FourSum.java)</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" t="str">
-        <f>_xlfn.CONCAT(A20,B20,C20,D20,E20,F20)</f>
-        <v>&lt;br&gt; [P19_RemoveNthNodeFromEndOfList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P19_RemoveNthNodeFromEndOfList.java)</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" t="str">
-        <f>_xlfn.CONCAT(A21,B21,C21,D21,E21,F21)</f>
-        <v>&lt;br&gt; [P20_ValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P20_ValidParentheses.java)</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" t="str">
-        <f>_xlfn.CONCAT(A22,B22,C22,D22,E22,F22)</f>
-        <v>&lt;br&gt; [P21_MergeTwoSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P21_MergeTwoSortedLists.java)</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f>_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="16" t="str">
+        <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f>_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="14">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f>_xlfn.CONCAT(B25,C25,D25,E25,F25,G25)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f>_xlfn.CONCAT(B26,C26,D26,E26,F26,G26)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="14">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
+        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:E23"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f>D2</f>
+        <v>P1_TwoSum</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="str">
+        <f>D3</f>
+        <v>P2_AddTwoNumbers</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f>D4</f>
+        <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f>D5</f>
+        <v>P4_MedianOfTwoSortedArrays</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f>D6</f>
+        <v>P5_LongestPalindromicSubstring</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f>D7</f>
+        <v>P6_ZigzagConversion</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f>D8</f>
+        <v>P7_ReverseInteger</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>D9</f>
+        <v>P8_StringToIntegerAtoi</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f>D10</f>
+        <v>P9_PalindromeNumber</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>D11</f>
+        <v>P10_RegularExpressionMatching</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f>D12</f>
+        <v>P11_ContainerWithMostWater</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f>D13</f>
+        <v>P12_IntegerToRoman</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f>D14</f>
+        <v>P13_RomanToInteger</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f>D15</f>
+        <v>P14_LongestCommonPrefix</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f>D16</f>
+        <v>P15_ThreeSum</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f>D17</f>
+        <v>P16_ThreeSumClosest</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="14" customFormat="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f>D18</f>
+        <v>P17_LetterCombinationsOfAPhoneNumber</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>D19</f>
+        <v>P18_FourSum</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f>D20</f>
+        <v>P19_RemoveNthNodeFromEndOfList</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f>D21</f>
+        <v>P20_ValidParentheses</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f>D22</f>
+        <v>P21_MergeTwoSortedLists</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f>D23</f>
+        <v>P22_GenerateParentheses</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15" t="str">
+        <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
+        <v>&lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f>D24</f>
+        <v>P23_MergeKSortedLists</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f>_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
+        <v>&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0564DA-0CBC-42C0-B64E-2D2C5FE780D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FED96-BCCD-4060-BC89-FF2DC43BB886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="引用地址" sheetId="2" r:id="rId2"/>
     <sheet name="已完成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -72,9 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;br&gt; </t>
-  </si>
-  <si>
     <t>函数名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,26 +271,26 @@
     <t>P23_MergeKSortedLists</t>
   </si>
   <si>
-    <t>&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</t>
-  </si>
-  <si>
-    <t>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</t>
+    <t>P26_RemoveDuplicatesFromSortedArray</t>
+  </si>
+  <si>
+    <t>P27_RemoveElement</t>
+  </si>
+  <si>
+    <t>P28_ImplementStrstr</t>
+  </si>
+  <si>
+    <t>P24_SwapNodesInPairs</t>
+  </si>
+  <si>
+    <t>P25_ReverseNodesInKGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P26_RemoveDuplicatesFromSortedArray</t>
-  </si>
-  <si>
-    <t>P27_RemoveElement</t>
-  </si>
-  <si>
-    <t>P28_ImplementStrstr</t>
-  </si>
-  <si>
-    <t>P24_SwapNodesInPairs</t>
-  </si>
-  <si>
-    <t>P25_ReverseNodesInKGroup</t>
+    <t xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</t>
   </si>
 </sst>
 </file>
@@ -708,7 +705,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -732,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -828,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -869,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -910,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
@@ -934,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" ref="L6:L15" si="0">DATEDIF($B$4,B6,"d")</f>
+        <f>DATEDIF($B$4,B6,"d")</f>
         <v>8</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -952,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
@@ -976,267 +973,267 @@
         <v>5</v>
       </c>
       <c r="L7" s="3">
+        <f>DATEDIF($B$4,B7,"d")</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <f>DATEDIF($B$4,B8,"d")</f>
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44745</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:J15" si="0">J8+1</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <f>DATEDIF($B$4,B9,"d")</f>
+        <v>13</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44746</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>DATEDIF($B$4,B10,"d")</f>
+        <v>14</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44747</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H14" si="1">F11+H10</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <f>DATEDIF($B$4,B11,"d")</f>
+        <v>15</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44748</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <f>DATEDIF($B$4,B12,"d")</f>
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44749</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44745</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" ref="J9:J15" si="1">J8+1</f>
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44746</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44747</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11:H14" si="2">F11+H10</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44748</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44749</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="K13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="0"/>
+        <f>DATEDIF($B$4,B13,"d")</f>
         <v>17</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1255,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>5</v>
@@ -1267,21 +1264,21 @@
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="0"/>
+        <f>DATEDIF($B$4,B14,"d")</f>
         <v>19</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -1294,14 +1291,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" ca="1" si="3">TODAY()</f>
         <v>44752</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>73</v>
+      <c r="D15" s="7" t="str">
+        <f>D25</f>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -1314,21 +1311,21 @@
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15:H17" si="4">F15+H14</f>
+        <f t="shared" ref="H15:H17" si="2">F15+H14</f>
         <v>23</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f>DATEDIF($B$4,B15,"d")</f>
         <v>20</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1340,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">TODAY()</f>
         <v>44752</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1351,204 +1348,204 @@
         <v>5</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:F22" si="5">IF(D16&lt;&gt;"",(LEN(D16)-LEN(SUBSTITUTE(D16,"&lt;br&gt;","")))/4+1,0)</f>
+        <f>IF(D16&lt;&gt;"",(LEN(D16)-LEN(SUBSTITUTE(D16,"&lt;br&gt;","")))/4+1,0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16:J22" si="3">J15+1</f>
+        <v>13</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <f ca="1">DATEDIF($B$4,B16,"d")</f>
+        <v>20</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44752</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <f>IF(D17&lt;&gt;"",(LEN(D17)-LEN(SUBSTITUTE(D17,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <f ca="1">DATEDIF($B$4,B17,"d")</f>
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44752</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <f>IF(D18&lt;&gt;"",(LEN(D18)-LEN(SUBSTITUTE(D18,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ref="H18:H22" si="4">F18+H17</f>
+        <v>23</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <f ca="1">DATEDIF($B$4,B18,"d")</f>
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44752</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <f>IF(D19&lt;&gt;"",(LEN(D19)-LEN(SUBSTITUTE(D19,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" ref="J16:J22" si="6">J15+1</f>
-        <v>13</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" ref="L16:L22" ca="1" si="7">DATEDIF($B$4,B16,"d")</f>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3">
+        <f ca="1">DATEDIF($B$4,B19,"d")</f>
         <v>20</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <f ca="1">TODAY()</f>
         <v>44752</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="5"/>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <f>IF(D20&lt;&gt;"",(LEN(D20)-LEN(SUBSTITUTE(D20,"&lt;br&gt;","")))/4+1,0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44752</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" ref="H18:H22" si="8">F18+H17</f>
-        <v>23</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44752</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44752</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">DATEDIF($B$4,B20,"d")</f>
         <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -1560,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">TODAY()</f>
         <v>44752</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1571,28 +1568,28 @@
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">DATEDIF($B$4,B21,"d")</f>
         <v>20</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -1604,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">TODAY()</f>
         <v>44752</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1615,28 +1612,28 @@
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(D22&lt;&gt;"",(LEN(D22)-LEN(SUBSTITUTE(D22,"&lt;br&gt;","")))/4+1,0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">DATEDIF($B$4,B22,"d")</f>
         <v>20</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -1679,7 +1676,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="18" t="str">
         <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28))</f>
-        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
@@ -1696,7 +1693,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="12"/>
@@ -1709,12 +1706,12 @@
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="D27" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="D28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="D29" s="20"/>
@@ -1734,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1754,7 +1751,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -1763,691 +1760,703 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="14" t="str">
         <f>D2</f>
-        <v>P24_SwapNodesInPairs</v>
+        <v>P23_MergeKSortedLists</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="16" t="str">
         <f>_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v>&lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="14" t="str">
         <f>D3</f>
-        <v>P25_ReverseNodesInKGroup</v>
+        <v>P24_SwapNodesInPairs</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="16" t="str">
         <f>_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
-        <v>&lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="14" t="str">
         <f>D4</f>
-        <v>P26_RemoveDuplicatesFromSortedArray</v>
+        <v>P25_ReverseNodesInKGroup</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="16" t="str">
         <f>_xlfn.CONCAT(B4,C4,D4,E4,F4,G4)</f>
-        <v>&lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="14" t="str">
-        <f>D5</f>
-        <v>P27_RemoveElement</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="16" t="str">
-        <f>_xlfn.CONCAT(B5,C5,D5,E5,F5,G5)</f>
-        <v>&lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java)</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="14" t="str">
         <f>D6</f>
-        <v>P28_ImplementStrstr</v>
+        <v>P27_RemoveElement</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="16" t="str">
         <f>_xlfn.CONCAT(B6,C6,D6,E6,F6,G6)</f>
-        <v>&lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14" t="str">
         <f>D7</f>
-        <v>0</v>
+        <v>P28_ImplementStrstr</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="16" t="str">
         <f>_xlfn.CONCAT(B7,C7,D7,E7,F7,G7)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="14">
         <f>D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="16" t="str">
         <f>_xlfn.CONCAT(B8,C8,D8,E8,F8,G8)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="14">
         <f>D9</f>
         <v>0</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="16" t="str">
         <f>_xlfn.CONCAT(B9,C9,D9,E9,F9,G9)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="14">
         <f>D10</f>
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="16" t="str">
         <f>_xlfn.CONCAT(B10,C10,D10,E10,F10,G10)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="14">
         <f>D11</f>
         <v>0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="16" t="str">
         <f>_xlfn.CONCAT(B11,C11,D11,E11,F11,G11)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="14">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="16" t="str">
         <f>_xlfn.CONCAT(B12,C12,D12,E12,F12,G12)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14">
         <f>D13</f>
         <v>0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="16" t="str">
         <f>_xlfn.CONCAT(B13,C13,D13,E13,F13,G13)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="14">
         <f>D14</f>
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="16" t="str">
         <f>_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="14">
         <f>D15</f>
         <v>0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="16" t="str">
         <f>_xlfn.CONCAT(B15,C15,D15,E15,F15,G15)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="14">
         <f>D16</f>
         <v>0</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="16" t="str">
         <f>_xlfn.CONCAT(B16,C16,D16,E16,F16,G16)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14">
         <f>D17</f>
         <v>0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="16" t="str">
         <f>_xlfn.CONCAT(B17,C17,D17,E17,F17,G17)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="14">
         <f>D18</f>
         <v>0</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="16" t="str">
         <f>_xlfn.CONCAT(B18,C18,D18,E18,F18,G18)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="14">
         <f>D19</f>
         <v>0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="16" t="str">
         <f>_xlfn.CONCAT(B19,C19,D19,E19,F19,G19)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="14">
         <f>D20</f>
         <v>0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="16" t="str">
         <f>_xlfn.CONCAT(B20,C20,D20,E20,F20,G20)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="14">
         <f>D21</f>
         <v>0</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="16" t="str">
         <f>_xlfn.CONCAT(B21,C21,D21,E21,F21,G21)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="14">
         <f>D22</f>
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="16" t="str">
         <f>_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="14">
         <f>D23</f>
         <v>0</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="16" t="str">
         <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="14">
         <f>D24</f>
         <v>0</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="16" t="str">
         <f>_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="14">
         <f>D25</f>
         <v>0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="16" t="str">
         <f>_xlfn.CONCAT(B25,C25,D25,E25,F25,G25)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26">
+        <v>47</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="14">
         <f>D26</f>
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="16" t="str">
         <f>_xlfn.CONCAT(B26,C26,D26,E26,F26,G26)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="A27">
+        <v>48</v>
+      </c>
       <c r="B27" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14">
         <f>D27</f>
         <v>0</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="16" t="str">
         <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28">
+        <v>49</v>
+      </c>
       <c r="B28" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="14">
         <f>D28</f>
         <v>0</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="16" t="str">
         <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
-        <v>&lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="29" spans="1:8">
+      <c r="A29">
+        <v>50</v>
+      </c>
       <c r="B29" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="14">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f>_xlfn.CONCAT(B29,C29,D29,E29,F29,G29)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2461,15 +2470,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="D1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2477,26 +2490,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="14" t="str">
         <f>D2</f>
         <v>P1_TwoSum</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2504,26 +2517,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="14" t="str">
         <f>D3</f>
         <v>P2_AddTwoNumbers</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2531,26 +2544,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="14" t="str">
         <f>D4</f>
         <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2558,26 +2571,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>D5</f>
         <v>P4_MedianOfTwoSortedArrays</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2585,26 +2598,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="14" t="str">
         <f>D6</f>
         <v>P5_LongestPalindromicSubstring</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2612,26 +2625,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14" t="str">
         <f>D7</f>
         <v>P6_ZigzagConversion</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2639,26 +2652,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>D8</f>
         <v>P7_ReverseInteger</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2666,26 +2679,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>D9</f>
         <v>P8_StringToIntegerAtoi</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2693,26 +2706,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>D10</f>
         <v>P9_PalindromeNumber</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2720,26 +2733,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>D11</f>
         <v>P10_RegularExpressionMatching</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2747,26 +2760,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>D12</f>
         <v>P11_ContainerWithMostWater</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2774,26 +2787,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>D13</f>
         <v>P12_IntegerToRoman</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2801,26 +2814,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>D14</f>
         <v>P13_RomanToInteger</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2828,26 +2841,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>D15</f>
         <v>P14_LongestCommonPrefix</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2855,26 +2868,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>D16</f>
         <v>P15_ThreeSum</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2882,26 +2895,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>D17</f>
         <v>P16_ThreeSumClosest</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1">
@@ -2909,26 +2922,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>D18</f>
         <v>P17_LetterCombinationsOfAPhoneNumber</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2936,26 +2949,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>D19</f>
         <v>P18_FourSum</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1">
@@ -2963,26 +2976,26 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="14" t="str">
         <f>D20</f>
         <v>P19_RemoveNthNodeFromEndOfList</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1">
@@ -2990,26 +3003,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="14" t="str">
         <f>D21</f>
         <v>P20_ValidParentheses</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3017,26 +3030,26 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>D22</f>
         <v>P21_MergeTwoSortedLists</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3044,27 +3057,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="14" t="str">
         <f>D23</f>
         <v>P22_GenerateParentheses</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
-        <v>&lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3072,42 +3085,57 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="14" t="str">
-        <f>D24</f>
-        <v>P23_MergeKSortedLists</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="16" t="str">
-        <f>_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
-        <v>&lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f>D27</f>
+        <v>P26_RemoveDuplicatesFromSortedArray</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
       </c>
     </row>
     <row r="28" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FED96-BCCD-4060-BC89-FF2DC43BB886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC59BB-5DB4-47E2-B815-972B08908FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1298,21 +1301,21 @@
       </c>
       <c r="D15" s="7" t="str">
         <f>D25</f>
-        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3">
         <f>IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ref="H15:H17" si="2">F15+H14</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -1356,7 +1359,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>5</v>
@@ -1444,7 +1447,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ref="H18:H22" si="4">F18+H17</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -1488,7 +1491,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -1532,7 +1535,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -1576,7 +1579,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -1675,8 +1678,8 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="18" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28))</f>
-        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28,D29,D30:D31))</f>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
@@ -1714,10 +1717,18 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="D29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="D32" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1734,7 +1745,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2470,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC59BB-5DB4-47E2-B815-972B08908FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F25D42-6086-4752-9B51-3DCA78C0C708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</t>
   </si>
 </sst>
 </file>
@@ -707,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D32"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1301,21 +1304,21 @@
       </c>
       <c r="D15" s="7" t="str">
         <f>D25</f>
-        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java) &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3">
         <f>IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ref="H15:H17" si="2">F15+H14</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -1403,7 +1406,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>5</v>
@@ -1447,7 +1450,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ref="H18:H22" si="4">F18+H17</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -1491,7 +1494,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -1535,7 +1538,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -1579,7 +1582,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -1678,8 +1681,8 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="18" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28,D29,D30:D31))</f>
-        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27,D28,D29,D30:D31,D32))</f>
+        <v>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java) &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
@@ -1722,7 +1725,9 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="D30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="D31" s="20"/>
@@ -1742,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1853,9 +1858,34 @@
         <v xml:space="preserve"> &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java)</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f>_xlfn.CONCAT(B5,C5,D5,E5,F5,G5)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>76</v>
@@ -1863,27 +1893,24 @@
       <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="14">
         <f>D6</f>
-        <v>P27_RemoveElement</v>
+        <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="16" t="str">
         <f>_xlfn.CONCAT(B6,C6,D6,E6,F6,G6)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>76</v>
@@ -1891,27 +1918,24 @@
       <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="14">
         <f>D7</f>
-        <v>P28_ImplementStrstr</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="16" t="str">
         <f>_xlfn.CONCAT(B7,C7,D7,E7,F7,G7)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>76</v>
@@ -1936,7 +1960,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>76</v>
@@ -1961,7 +1985,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>76</v>
@@ -1986,7 +2010,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>76</v>
@@ -2011,7 +2035,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>76</v>
@@ -2036,7 +2060,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>76</v>
@@ -2061,7 +2085,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>76</v>
@@ -2086,7 +2110,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>76</v>
@@ -2111,7 +2135,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>76</v>
@@ -2136,7 +2160,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>76</v>
@@ -2161,7 +2185,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>76</v>
@@ -2186,7 +2210,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>76</v>
@@ -2211,7 +2235,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>76</v>
@@ -2236,7 +2260,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>76</v>
@@ -2261,7 +2285,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>76</v>
@@ -2286,7 +2310,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>76</v>
@@ -2311,7 +2335,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>76</v>
@@ -2336,7 +2360,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>76</v>
@@ -2361,7 +2385,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>76</v>
@@ -2386,87 +2410,12 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="14">
-        <f>D27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="16" t="str">
-        <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="14">
-        <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="16" t="str">
-        <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>50</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="14">
-        <f>D29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f>_xlfn.CONCAT(B29,C29,D29,E29,F29,G29)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>51</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2482,7 +2431,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B2:B27"/>
+      <selection activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3153,10 +3102,56 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="14" t="str">
+        <f>D28</f>
+        <v>P27_RemoveElement</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="14" t="str">
+        <f>D29</f>
+        <v>P28_ImplementStrstr</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f>_xlfn.CONCAT(B29,C29,D29,E29,F29,G29)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F25D42-6086-4752-9B51-3DCA78C0C708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC8317-073C-4B47-B096-92BD8ECE66A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -711,7 +711,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1749,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2428,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2441,13 +2441,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="D1" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="14" t="str">
+        <f>D1</f>
+        <v>P1_TwoSum</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>76</v>
@@ -2456,25 +2478,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="14" t="str">
         <f>D2</f>
-        <v>P1_TwoSum</v>
+        <v>P2_AddTwoNumbers</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>76</v>
@@ -2483,25 +2505,25 @@
         <v>13</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="14" t="str">
         <f>D3</f>
-        <v>P2_AddTwoNumbers</v>
+        <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>76</v>
@@ -2510,25 +2532,25 @@
         <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="14" t="str">
         <f>D4</f>
-        <v>P3_LongestSubstringWithoutRepeatingCharacters</v>
+        <v>P4_MedianOfTwoSortedArrays</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>76</v>
@@ -2537,25 +2559,25 @@
         <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>D5</f>
-        <v>P4_MedianOfTwoSortedArrays</v>
+        <v>P5_LongestPalindromicSubstring</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>76</v>
@@ -2564,25 +2586,25 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="14" t="str">
         <f>D6</f>
-        <v>P5_LongestPalindromicSubstring</v>
+        <v>P6_ZigzagConversion</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>76</v>
@@ -2591,25 +2613,25 @@
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="14" t="str">
         <f>D7</f>
-        <v>P6_ZigzagConversion</v>
+        <v>P7_ReverseInteger</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>76</v>
@@ -2618,25 +2640,25 @@
         <v>13</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>D8</f>
-        <v>P7_ReverseInteger</v>
+        <v>P8_StringToIntegerAtoi</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>76</v>
@@ -2645,25 +2667,25 @@
         <v>13</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>D9</f>
-        <v>P8_StringToIntegerAtoi</v>
+        <v>P9_PalindromeNumber</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>76</v>
@@ -2672,25 +2694,25 @@
         <v>13</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>D10</f>
-        <v>P9_PalindromeNumber</v>
+        <v>P10_RegularExpressionMatching</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>76</v>
@@ -2699,25 +2721,25 @@
         <v>13</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>D11</f>
-        <v>P10_RegularExpressionMatching</v>
+        <v>P11_ContainerWithMostWater</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>76</v>
@@ -2726,25 +2748,25 @@
         <v>13</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>D12</f>
-        <v>P11_ContainerWithMostWater</v>
+        <v>P12_IntegerToRoman</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>76</v>
@@ -2753,25 +2775,25 @@
         <v>13</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>D13</f>
-        <v>P12_IntegerToRoman</v>
+        <v>P13_RomanToInteger</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>76</v>
@@ -2780,25 +2802,25 @@
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>D14</f>
-        <v>P13_RomanToInteger</v>
+        <v>P14_LongestCommonPrefix</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>76</v>
@@ -2807,25 +2829,25 @@
         <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>D15</f>
-        <v>P14_LongestCommonPrefix</v>
+        <v>P15_ThreeSum</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>76</v>
@@ -2834,25 +2856,25 @@
         <v>13</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>D16</f>
-        <v>P15_ThreeSum</v>
+        <v>P16_ThreeSumClosest</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="14" customFormat="1">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>76</v>
@@ -2861,25 +2883,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>D17</f>
-        <v>P16_ThreeSumClosest</v>
+        <v>P17_LetterCombinationsOfAPhoneNumber</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="14" customFormat="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>76</v>
@@ -2888,25 +2910,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>D18</f>
-        <v>P17_LetterCombinationsOfAPhoneNumber</v>
+        <v>P18_FourSum</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>76</v>
@@ -2915,52 +2937,52 @@
         <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>D19</f>
-        <v>P18_FourSum</v>
+        <v>P19_RemoveNthNodeFromEndOfList</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1">
       <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="14" t="str">
         <f>D20</f>
-        <v>P19_RemoveNthNodeFromEndOfList</v>
+        <v>P20_ValidParentheses</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="13" customFormat="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>76</v>
@@ -2969,25 +2991,25 @@
         <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="14" t="str">
         <f>D21</f>
-        <v>P20_ValidParentheses</v>
+        <v>P21_MergeTwoSortedLists</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>76</v>
@@ -2996,67 +3018,48 @@
         <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>D22</f>
-        <v>P21_MergeTwoSortedLists</v>
+        <v>P22_GenerateParentheses</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>43</v>
+      <c r="H22" s="15" t="str">
+        <f>_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="14" t="str">
-        <f>D23</f>
-        <v>P22_GenerateParentheses</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="15" t="str">
-        <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
-      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>76</v>
@@ -3064,15 +3067,35 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>76</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="14" t="str">
+        <f>D26</f>
+        <v>P26_RemoveDuplicatesFromSortedArray</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f>_xlfn.CONCAT(B26,C26,D26,E26,F26,G26)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>76</v>
@@ -3081,26 +3104,26 @@
         <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="14" t="str">
         <f>D27</f>
-        <v>P26_RemoveDuplicatesFromSortedArray</v>
+        <v>P27_RemoveElement</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="16" t="str">
         <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>76</v>
@@ -3109,73 +3132,45 @@
         <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="14" t="str">
         <f>D28</f>
-        <v>P27_RemoveElement</v>
+        <v>P28_ImplementStrstr</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="16" t="str">
         <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="14" t="str">
-        <f>D29</f>
-        <v>P28_ImplementStrstr</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f>_xlfn.CONCAT(B29,C29,D29,E29,F29,G29)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
         <v>33</v>
       </c>
     </row>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B1D71-A021-418E-BF51-284D0D6AC338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13627CF-322D-403A-B5D1-5D1EB334FB58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
     <t>P29_DivideTwoIntegers</t>
   </si>
   <si>
-    <t>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java) &lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java) &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java) &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</t>
+    <t>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java) &lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java) &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java) &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)  &lt;br&gt; [P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1311,13 +1311,15 @@
         <v>5</v>
       </c>
       <c r="F15" s="20">
-        <v>7</v>
+        <f t="shared" ref="F15:F22" si="0">IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>8</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="20">
-        <v>28</v>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:H17" si="1">F15+H14</f>
+        <v>29</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>5</v>
@@ -1340,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16:B22" ca="1" si="0">TODAY()</f>
+        <f t="shared" ref="B16:B22" ca="1" si="2">TODAY()</f>
         <v>44752</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1348,21 +1350,21 @@
       </c>
       <c r="D16" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F15:F22" si="1">IF(D16&lt;&gt;"",(LEN(D16)-LEN(SUBSTITUTE(D16,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H15:H17" si="2">F16+H15</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>5</v>
@@ -1375,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L6:L22" ca="1" si="4">DATEDIF($B$4,B16,"d")</f>
+        <f t="shared" ref="L16:L22" ca="1" si="4">DATEDIF($B$4,B16,"d")</f>
         <v>20</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1387,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1395,21 +1397,21 @@
       </c>
       <c r="D17" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
@@ -1434,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1442,21 +1444,21 @@
       </c>
       <c r="D18" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ref="H18:H22" si="5">F18+H17</f>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
@@ -1481,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1489,21 +1491,21 @@
       </c>
       <c r="D19" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>5</v>
@@ -1528,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1536,21 +1538,21 @@
       </c>
       <c r="D20" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
@@ -1575,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1583,21 +1585,21 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1622,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44752</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1630,21 +1632,21 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>D25</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1701,8 +1703,8 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="15" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D32))</f>
-        <v>[P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java) &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D27))</f>
+        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
@@ -1718,10 +1720,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="16" t="str">
-        <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java)</v>
-      </c>
+      <c r="D26" s="16"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="7"/>
@@ -1927,7 +1926,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1951,34 +1950,6 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="str">
-        <f>D2</f>
-        <v>P29_DivideTwoIntegers</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="str">
-        <f>_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java)</v>
-      </c>
-    </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>30</v>
@@ -3784,7 +3755,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4384,7 +4355,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="12" t="str">
-        <f>_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
+        <f t="shared" ref="H22:H28" si="1">_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
         <v xml:space="preserve"> &lt;br&gt; [P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java)</v>
       </c>
     </row>
@@ -4405,14 +4376,14 @@
         <v>14</v>
       </c>
       <c r="F23" s="11" t="str">
-        <f>D23</f>
+        <f t="shared" ref="F23:F28" si="2">D23</f>
         <v>P23_MergeKSortedLists</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="13" t="str">
-        <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java)</v>
       </c>
     </row>
@@ -4433,14 +4404,14 @@
         <v>14</v>
       </c>
       <c r="F24" s="11" t="str">
-        <f>D24</f>
+        <f t="shared" si="2"/>
         <v>P24_SwapNodesInPairs</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="13" t="str">
-        <f>_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java)</v>
       </c>
     </row>
@@ -4461,14 +4432,14 @@
         <v>14</v>
       </c>
       <c r="F25" s="11" t="str">
-        <f>D25</f>
+        <f t="shared" si="2"/>
         <v>P25_ReverseNodesInKGroup</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="13" t="str">
-        <f>_xlfn.CONCAT(B25,C25,D25,E25,F25,G25)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java)</v>
       </c>
     </row>
@@ -4489,14 +4460,14 @@
         <v>14</v>
       </c>
       <c r="F26" s="11" t="str">
-        <f>D26</f>
+        <f t="shared" si="2"/>
         <v>P26_RemoveDuplicatesFromSortedArray</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="13" t="str">
-        <f>_xlfn.CONCAT(B26,C26,D26,E26,F26,G26)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java)</v>
       </c>
     </row>
@@ -4517,14 +4488,14 @@
         <v>14</v>
       </c>
       <c r="F27" s="11" t="str">
-        <f>D27</f>
+        <f t="shared" si="2"/>
         <v>P27_RemoveElement</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="13" t="str">
-        <f>_xlfn.CONCAT(B27,C27,D27,E27,F27,G27)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java)</v>
       </c>
     </row>
@@ -4545,20 +4516,43 @@
         <v>14</v>
       </c>
       <c r="F28" s="11" t="str">
-        <f>D28</f>
+        <f t="shared" si="2"/>
         <v>P28_ImplementStrstr</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="13" t="str">
-        <f>_xlfn.CONCAT(B28,C28,D28,E28,F28,G28)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f>D29</f>
+        <v>P29_DivideTwoIntegers</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="13" t="str">
+        <f>_xlfn.CONCAT(B29,C29,D29,E29,F29,G29)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java)</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13627CF-322D-403A-B5D1-5D1EB334FB58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E13C0-2920-45B2-98B1-6A77F247D49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H15:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1317,7 +1317,7 @@
       <c r="G15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="20">
         <f t="shared" ref="H15:H17" si="1">F15+H14</f>
         <v>29</v>
       </c>
@@ -1337,50 +1337,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" ref="B16:B22" ca="1" si="2">TODAY()</f>
-        <v>44752</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="str">
+    <row r="16" spans="1:14" s="21" customFormat="1">
+      <c r="A16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44753</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" ref="J16:J22" si="3">J15+1</f>
-        <v>13</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" ref="L16:L22" ca="1" si="4">DATEDIF($B$4,B16,"d")</f>
-        <v>20</v>
-      </c>
-      <c r="M16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" ref="J16:J22" si="2">J15+1</f>
+        <v>13</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" ref="L16:L22" si="3">DATEDIF($B$4,B16,"d")</f>
+        <v>21</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1389,43 +1388,43 @@
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ref="B16:B22" ca="1" si="4">TODAY()</f>
+        <v>44753</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>5</v>
@@ -1436,43 +1435,43 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44753</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ref="H18:H22" si="5">F18+H17</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
@@ -1483,43 +1482,43 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44753</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>5</v>
@@ -1530,43 +1529,43 @@
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44753</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
@@ -1577,43 +1576,43 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44753</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
@@ -1624,43 +1623,43 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44753</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>D25</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1703,8 +1702,8 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="15" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D27))</f>
-        <v>&lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D31))</f>
+        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
@@ -1720,7 +1719,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16" t="str">
+        <f>引用地址!H3</f>
+        <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="7"/>
@@ -1733,180 +1735,174 @@
     </row>
     <row r="27" spans="1:13">
       <c r="D27" s="16" t="str">
-        <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <f>引用地址!H4</f>
+        <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="D28" s="16" t="str">
-        <f>引用地址!H4</f>
-        <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
+        <f>引用地址!H5</f>
+        <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="D29" s="16" t="str">
-        <f>引用地址!H5</f>
-        <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
+        <f>引用地址!H6</f>
+        <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="D30" s="16" t="str">
-        <f>引用地址!H6</f>
-        <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
+        <f>引用地址!H7</f>
+        <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="D31" s="16" t="str">
-        <f>引用地址!H7</f>
-        <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
+        <f>引用地址!H8</f>
+        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="D32" s="16" t="str">
-        <f>引用地址!H8</f>
-        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <f>引用地址!H9</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="16" t="str">
-        <f>引用地址!H9</f>
+        <f>引用地址!H10</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="16" t="str">
-        <f>引用地址!H10</f>
+        <f>引用地址!H11</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="16" t="str">
-        <f>引用地址!H11</f>
+        <f>引用地址!H12</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="16" t="str">
-        <f>引用地址!H12</f>
+        <f>引用地址!H13</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="16" t="str">
-        <f>引用地址!H13</f>
+        <f>引用地址!H14</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="16" t="str">
-        <f>引用地址!H14</f>
+        <f>引用地址!H15</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="16" t="str">
-        <f>引用地址!H15</f>
+        <f>引用地址!H16</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="16" t="str">
-        <f>引用地址!H16</f>
+        <f>引用地址!H17</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="16" t="str">
-        <f>引用地址!H17</f>
+        <f>引用地址!H18</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="16" t="str">
-        <f>引用地址!H18</f>
+        <f>引用地址!H19</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="16" t="str">
-        <f>引用地址!H19</f>
+        <f>引用地址!H20</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="16" t="str">
-        <f>引用地址!H20</f>
+        <f>引用地址!H21</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="16" t="str">
-        <f>引用地址!H21</f>
+        <f>引用地址!H22</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="16" t="str">
-        <f>引用地址!H22</f>
+        <f>引用地址!H23</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="16" t="str">
-        <f>引用地址!H23</f>
+        <f>引用地址!H24</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="16" t="str">
-        <f>引用地址!H24</f>
+        <f>引用地址!H25</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="16" t="str">
-        <f>引用地址!H25</f>
+        <f>引用地址!H26</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="16" t="str">
-        <f>引用地址!H26</f>
+        <f>引用地址!H27</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="16" t="str">
-        <f>引用地址!H27</f>
+        <f>引用地址!H28</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="16" t="str">
-        <f>引用地址!H28</f>
+        <f>引用地址!H29</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="16" t="str">
-        <f>引用地址!H29</f>
+        <f>引用地址!H30</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="16" t="str">
-        <f>引用地址!H30</f>
+        <f>引用地址!H31</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="16" t="str">
-        <f>引用地址!H31</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="16" t="str">
         <f>引用地址!H32</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
@@ -1967,14 +1963,14 @@
         <v>14</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f>D3</f>
+        <f t="shared" ref="F3:F23" si="0">D3</f>
         <v>P30_SubstringWithConcatenationOfAllWords</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="13" t="str">
-        <f>_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
+        <f t="shared" ref="H3:H23" si="1">_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
         <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
     </row>
@@ -1995,14 +1991,14 @@
         <v>14</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>P31_NextPermutation</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="13" t="str">
-        <f>_xlfn.CONCAT(B4,C4,D4,E4,F4,G4)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
       </c>
     </row>
@@ -2023,14 +2019,14 @@
         <v>14</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>P32_LongestValidParentheses</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="13" t="str">
-        <f>_xlfn.CONCAT(B5,C5,D5,E5,F5,G5)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
       </c>
     </row>
@@ -2051,14 +2047,14 @@
         <v>14</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>P33_SearchInRotatedSortedArray</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="13" t="str">
-        <f>_xlfn.CONCAT(B6,C6,D6,E6,F6,G6)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
       </c>
     </row>
@@ -2079,14 +2075,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>P34_FindFirstAndLastPositionOfElementInSortedArray</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="13" t="str">
-        <f>_xlfn.CONCAT(B7,C7,D7,E7,F7,G7)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
       </c>
     </row>
@@ -2107,14 +2103,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="11" t="str">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>P35_SearchInsertPosition</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="13" t="str">
-        <f>_xlfn.CONCAT(B8,C8,D8,E8,F8,G8)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
     </row>
@@ -2132,14 +2128,14 @@
         <v>14</v>
       </c>
       <c r="F9" s="11">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="13" t="str">
-        <f>_xlfn.CONCAT(B9,C9,D9,E9,F9,G9)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2157,14 +2153,14 @@
         <v>14</v>
       </c>
       <c r="F10" s="11">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="13" t="str">
-        <f>_xlfn.CONCAT(B10,C10,D10,E10,F10,G10)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2182,14 +2178,14 @@
         <v>14</v>
       </c>
       <c r="F11" s="11">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="13" t="str">
-        <f>_xlfn.CONCAT(B11,C11,D11,E11,F11,G11)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2207,14 +2203,14 @@
         <v>14</v>
       </c>
       <c r="F12" s="11">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="13" t="str">
-        <f>_xlfn.CONCAT(B12,C12,D12,E12,F12,G12)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2232,14 +2228,14 @@
         <v>14</v>
       </c>
       <c r="F13" s="11">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="13" t="str">
-        <f>_xlfn.CONCAT(B13,C13,D13,E13,F13,G13)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2257,14 +2253,14 @@
         <v>14</v>
       </c>
       <c r="F14" s="11">
-        <f>D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="13" t="str">
-        <f>_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2282,14 +2278,14 @@
         <v>14</v>
       </c>
       <c r="F15" s="11">
-        <f>D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="13" t="str">
-        <f>_xlfn.CONCAT(B15,C15,D15,E15,F15,G15)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2307,14 +2303,14 @@
         <v>14</v>
       </c>
       <c r="F16" s="11">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="13" t="str">
-        <f>_xlfn.CONCAT(B16,C16,D16,E16,F16,G16)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2332,14 +2328,14 @@
         <v>14</v>
       </c>
       <c r="F17" s="11">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="13" t="str">
-        <f>_xlfn.CONCAT(B17,C17,D17,E17,F17,G17)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2357,14 +2353,14 @@
         <v>14</v>
       </c>
       <c r="F18" s="11">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f>_xlfn.CONCAT(B18,C18,D18,E18,F18,G18)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2382,14 +2378,14 @@
         <v>14</v>
       </c>
       <c r="F19" s="11">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f>_xlfn.CONCAT(B19,C19,D19,E19,F19,G19)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2407,14 +2403,14 @@
         <v>14</v>
       </c>
       <c r="F20" s="11">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f>_xlfn.CONCAT(B20,C20,D20,E20,F20,G20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2432,14 +2428,14 @@
         <v>14</v>
       </c>
       <c r="F21" s="11">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="13" t="str">
-        <f>_xlfn.CONCAT(B21,C21,D21,E21,F21,G21)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2457,14 +2453,14 @@
         <v>14</v>
       </c>
       <c r="F22" s="11">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="13" t="str">
-        <f>_xlfn.CONCAT(B22,C22,D22,E22,F22,G22)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2482,14 +2478,14 @@
         <v>14</v>
       </c>
       <c r="F23" s="11">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="13" t="str">
-        <f>_xlfn.CONCAT(B23,C23,D23,E23,F23,G23)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2507,14 +2503,14 @@
         <v>14</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F73" si="0">D24</f>
+        <f t="shared" ref="F24:F73" si="2">D24</f>
         <v>0</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="13" t="str">
-        <f t="shared" ref="H24:H73" si="1">_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
+        <f t="shared" ref="H24:H73" si="3">_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2532,14 +2528,14 @@
         <v>14</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2557,14 +2553,14 @@
         <v>14</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2582,14 +2578,14 @@
         <v>14</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2607,14 +2603,14 @@
         <v>14</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2632,14 +2628,14 @@
         <v>14</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2657,14 +2653,14 @@
         <v>14</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2682,14 +2678,14 @@
         <v>14</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2707,14 +2703,14 @@
         <v>14</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2732,14 +2728,14 @@
         <v>14</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2757,14 +2753,14 @@
         <v>14</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2782,14 +2778,14 @@
         <v>14</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2807,14 +2803,14 @@
         <v>14</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2832,14 +2828,14 @@
         <v>14</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2857,14 +2853,14 @@
         <v>14</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2882,14 +2878,14 @@
         <v>14</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2907,14 +2903,14 @@
         <v>14</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2932,14 +2928,14 @@
         <v>14</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2957,14 +2953,14 @@
         <v>14</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2982,14 +2978,14 @@
         <v>14</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3007,14 +3003,14 @@
         <v>14</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3032,14 +3028,14 @@
         <v>14</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3057,14 +3053,14 @@
         <v>14</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3082,14 +3078,14 @@
         <v>14</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3107,14 +3103,14 @@
         <v>14</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3132,14 +3128,14 @@
         <v>14</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3157,14 +3153,14 @@
         <v>14</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3182,14 +3178,14 @@
         <v>14</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3207,14 +3203,14 @@
         <v>14</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3232,14 +3228,14 @@
         <v>14</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3257,14 +3253,14 @@
         <v>14</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3282,14 +3278,14 @@
         <v>14</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3307,14 +3303,14 @@
         <v>14</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3332,14 +3328,14 @@
         <v>14</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3357,14 +3353,14 @@
         <v>14</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3382,14 +3378,14 @@
         <v>14</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H59" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3407,14 +3403,14 @@
         <v>14</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3432,14 +3428,14 @@
         <v>14</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3457,14 +3453,14 @@
         <v>14</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3482,14 +3478,14 @@
         <v>14</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3507,14 +3503,14 @@
         <v>14</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3532,14 +3528,14 @@
         <v>14</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3557,14 +3553,14 @@
         <v>14</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3582,14 +3578,14 @@
         <v>14</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3607,14 +3603,14 @@
         <v>14</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3632,14 +3628,14 @@
         <v>14</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3657,14 +3653,14 @@
         <v>14</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3682,14 +3678,14 @@
         <v>14</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3707,14 +3703,14 @@
         <v>14</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3732,14 +3728,14 @@
         <v>14</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E13C0-2920-45B2-98B1-6A77F247D49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EAF5A-3349-41BB-9D20-079B47B2FB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -314,6 +314,31 @@
   <si>
     <t>[P22_GenerateParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P22_GenerateParentheses.java) &lt;br&gt; [P23_MergeKSortedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P23_MergeKSortedLists.java) &lt;br&gt; [P24_SwapNodesInPairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P24_SwapNodesInPairs.java) &lt;br&gt; [P25_ReverseNodesInKGroup](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P25_ReverseNodesInKGroup.java) &lt;br&gt; [P26_RemoveDuplicatesFromSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P26_RemoveDuplicatesFromSortedArray.java) &lt;br&gt; [P27_RemoveElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P27_RemoveElement.java) &lt;br&gt; [P28_ImplementStrstr](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P28_ImplementStrstr.java)  &lt;br&gt; [P29_DivideTwoIntegers](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P29_DivideTwoIntegers.java)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; </t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>.java)</t>
+  </si>
+  <si>
+    <t>P36_ValidSudoku</t>
+  </si>
+  <si>
+    <t>P37_SudokuSolver</t>
+  </si>
+  <si>
+    <t>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P38_CountAndSay</t>
+  </si>
+  <si>
+    <t>[P36_ValidSudoku](https://github.com/behappy01/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P36_ValidSudoku.java) &lt;br&gt; [P37_SudokuSolver](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P37_SudokuSolver.java) &lt;br&gt; [P38_CountAndSay](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P38_CountAndSay.java)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +459,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -759,674 +786,667 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:14" s="20" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="21" customFormat="1">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="M2" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1">
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="21" customFormat="1">
-      <c r="A4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="M3" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16">
         <v>44732</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="19">
         <v>2</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="I4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="19">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="19">
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="M4" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1">
+      <c r="A5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16">
         <v>44738</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="E5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="G5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="19">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="I5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="19">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="K5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="19">
         <v>6</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="21" customFormat="1">
-      <c r="A6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="M5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
         <v>44740</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="G6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="20">
+      <c r="I6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
         <v>3</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="K6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="19">
         <v>8</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="21" customFormat="1">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="M6" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
         <v>44742</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="20">
-        <v>5</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="G7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="19">
         <v>4</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="K7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="19">
         <v>10</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="21" customFormat="1">
-      <c r="A8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="M7" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1">
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16">
         <v>44743</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="G8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19">
         <v>6</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="20">
-        <v>5</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="I8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19">
         <v>11</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="21" customFormat="1">
-      <c r="A9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="M8" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16">
         <v>44745</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="G9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="19">
         <v>8</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="20">
+      <c r="I9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="19">
         <v>6</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="K9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19">
         <v>13</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="21" customFormat="1">
-      <c r="A10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="M9" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="20" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16">
         <v>44746</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="E10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="G10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
         <v>9</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="I10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19">
         <v>7</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="20">
-        <v>14</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="21" customFormat="1">
-      <c r="A11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="K10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19">
+        <v>14</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="20" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16">
         <v>44747</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="G11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19">
         <v>10</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="19">
         <v>8</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="K11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19">
         <v>15</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="21" customFormat="1">
-      <c r="A12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="M11" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="20" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16">
         <v>44748</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="E12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="19">
         <v>11</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="I12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19">
         <v>9</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="K12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="19">
         <v>16</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="21" customFormat="1">
-      <c r="A13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="M12" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16">
         <v>44749</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="E13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="G13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="19">
         <v>15</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="I13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="19">
         <v>10</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="K13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="19">
         <v>17</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="23" customFormat="1">
-      <c r="A14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="24">
+      <c r="M13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" s="22" customFormat="1">
+      <c r="A14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23">
         <v>44751</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="18">
         <v>6</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="G14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="19">
         <v>21</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="19">
         <v>11</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="K14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="19">
         <v>19</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" s="21" customFormat="1">
-      <c r="A15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="M14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" s="20" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16">
         <v>44752</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="E15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" ref="F15:F22" si="0">IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
         <v>8</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="19">
         <f t="shared" ref="H15:H17" si="1">F15+H14</f>
         <v>29</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="I15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="19">
         <v>12</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="K15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="19">
         <v>20</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="21" customFormat="1">
-      <c r="A16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="M15" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="16">
         <v>44753</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="19" t="str">
-        <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="G16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" ref="J16:J22" si="2">J15+1</f>
         <v>13</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="K16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="19">
         <f t="shared" ref="L16:L22" si="3">DATEDIF($B$4,B16,"d")</f>
         <v>21</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" ref="B16:B22" ca="1" si="4">TODAY()</f>
-        <v>44753</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="M16" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="20" customFormat="1">
+      <c r="A17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="16">
+        <v>44754</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="19">
+        <v>38</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="19">
+        <v>14</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="19">
+        <v>22</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1435,29 +1455,29 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>44753</v>
+        <f t="shared" ref="B17:B22" ca="1" si="4">TODAY()</f>
+        <v>44754</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ref="H18:H22" si="5">F18+H17</f>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
@@ -1471,7 +1491,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
@@ -1483,28 +1503,28 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>5</v>
@@ -1518,7 +1538,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>5</v>
@@ -1530,28 +1550,28 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
@@ -1565,7 +1585,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
@@ -1577,28 +1597,28 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
@@ -1624,28 +1644,28 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>D25</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1659,7 +1679,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1695,15 +1715,15 @@
       <c r="L24" s="9"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="83.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="15" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D31))</f>
-        <v>[P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java) &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java) &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java) &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java) &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java) &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+      <c r="D25" s="24" t="str">
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D28))</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
@@ -1719,9 +1739,9 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="16" t="str">
-        <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+      <c r="D26" s="15" t="str">
+        <f>引用地址!H2</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
@@ -1734,178 +1754,157 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="15" t="str">
+        <f>引用地址!H3</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="15" t="str">
         <f>引用地址!H4</f>
-        <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="D28" s="16" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29" s="15" t="str">
         <f>引用地址!H5</f>
-        <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="D29" s="16" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="15" t="str">
         <f>引用地址!H6</f>
-        <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="D30" s="16" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="D31" s="15" t="str">
         <f>引用地址!H7</f>
-        <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="D31" s="16" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="D32" s="15" t="str">
         <f>引用地址!H8</f>
-        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="D32" s="16" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="15" t="str">
         <f>引用地址!H9</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="16" t="str">
+    <row r="34" spans="4:4">
+      <c r="D34" s="15" t="str">
         <f>引用地址!H10</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="16" t="str">
+    <row r="35" spans="4:4">
+      <c r="D35" s="15" t="str">
         <f>引用地址!H11</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="16" t="str">
+    <row r="36" spans="4:4">
+      <c r="D36" s="15" t="str">
         <f>引用地址!H12</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="16" t="str">
+    <row r="37" spans="4:4">
+      <c r="D37" s="15" t="str">
         <f>引用地址!H13</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="16" t="str">
+    <row r="38" spans="4:4">
+      <c r="D38" s="15" t="str">
         <f>引用地址!H14</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="16" t="str">
+    <row r="39" spans="4:4">
+      <c r="D39" s="15" t="str">
         <f>引用地址!H15</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="16" t="str">
+    <row r="40" spans="4:4">
+      <c r="D40" s="15" t="str">
         <f>引用地址!H16</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="16" t="str">
+    <row r="41" spans="4:4">
+      <c r="D41" s="15" t="str">
         <f>引用地址!H17</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="16" t="str">
+    <row r="42" spans="4:4">
+      <c r="D42" s="15" t="str">
         <f>引用地址!H18</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="16" t="str">
+    <row r="43" spans="4:4">
+      <c r="D43" s="15" t="str">
         <f>引用地址!H19</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="16" t="str">
+    <row r="44" spans="4:4">
+      <c r="D44" s="15" t="str">
         <f>引用地址!H20</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="16" t="str">
+    <row r="45" spans="4:4">
+      <c r="D45" s="15" t="str">
         <f>引用地址!H21</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="16" t="str">
+    <row r="46" spans="4:4">
+      <c r="D46" s="15">
         <f>引用地址!H22</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="15">
         <f>引用地址!H23</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="15">
         <f>引用地址!H24</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="16" t="str">
-        <f>引用地址!H25</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="16" t="str">
-        <f>引用地址!H26</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="16" t="str">
-        <f>引用地址!H27</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="16" t="str">
-        <f>引用地址!H28</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="16" t="str">
-        <f>引用地址!H29</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="16" t="str">
-        <f>引用地址!H30</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="16" t="str">
-        <f>引用地址!H31</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="16" t="str">
-        <f>引用地址!H32</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1921,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1932,7 +1931,7 @@
     <col min="4" max="4" width="10.3984375" customWidth="1"/>
     <col min="5" max="6" width="5.59765625" customWidth="1"/>
     <col min="7" max="7" width="7.9296875" customWidth="1"/>
-    <col min="8" max="8" width="135.9296875" customWidth="1"/>
+    <col min="8" max="8" width="101.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1946,1798 +1945,919 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F21" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H21" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="str">
-        <f t="shared" ref="F3:F23" si="0">D3</f>
-        <v>P30_SubstringWithConcatenationOfAllWords</v>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="13" t="str">
-        <f t="shared" ref="H3:H23" si="1">_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+        <v>87</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>P31_NextPermutation</v>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>P32_LongestValidParentheses</v>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>P33_SearchInRotatedSortedArray</v>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>P34_FindFirstAndLastPositionOfElementInSortedArray</v>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>P35_SearchInsertPosition</v>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="13" t="str">
+        <v>87</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24">
-        <v>51</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" ref="F24:F73" si="2">D24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="13" t="str">
-        <f t="shared" ref="H24:H73" si="3">_xlfn.CONCAT(B24,C24,D24,E24,F24,G24)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
-        <v>52</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
-        <v>53</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
-        <v>54</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
-        <v>55</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
-        <v>56</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
-        <v>57</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
-        <v>58</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32">
-        <v>59</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>61</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>62</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>63</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>64</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>65</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>66</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>67</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>68</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>69</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>70</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>71</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>72</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>73</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>74</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>75</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>76</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>77</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>78</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>79</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>80</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>81</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>82</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>83</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>92</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>93</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>94</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>95</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>96</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>97</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>98</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>99</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <v>100</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3748,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4555,20 +3675,297 @@
       <c r="A30">
         <v>30</v>
       </c>
+      <c r="B30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" ref="F30:F38" si="3">D30</f>
+        <v>P30_SubstringWithConcatenationOfAllWords</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="13" t="str">
+        <f t="shared" ref="H30:H38" si="4">_xlfn.CONCAT(B30,C30,D30,E30,F30,G30)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
         <v>31</v>
       </c>
+      <c r="B31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P31_NextPermutation</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P31_NextPermutation](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P31_NextPermutation.java)</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P32_LongestValidParentheses</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P32_LongestValidParentheses](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P32_LongestValidParentheses.java)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>33</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P33_SearchInRotatedSortedArray</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P33_SearchInRotatedSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P33_SearchInRotatedSortedArray.java)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P34_FindFirstAndLastPositionOfElementInSortedArray</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P34_FindFirstAndLastPositionOfElementInSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P34_FindFirstAndLastPositionOfElementInSortedArray.java)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P35_SearchInsertPosition</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P36_ValidSudoku</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P36_ValidSudoku](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P36_ValidSudoku.java)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P37_SudokuSolver</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P37_SudokuSolver](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P37_SudokuSolver.java)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P38_CountAndSay</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P38_CountAndSay](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P38_CountAndSay.java)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EAF5A-3349-41BB-9D20-079B47B2FB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA404DD-C303-4258-A421-D3F5386F485D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -339,6 +339,13 @@
   </si>
   <si>
     <t>[P36_ValidSudoku](https://github.com/behappy01/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P36_ValidSudoku.java) &lt;br&gt; [P37_SudokuSolver](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P37_SudokuSolver.java) &lt;br&gt; [P38_CountAndSay](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P38_CountAndSay.java)</t>
+  </si>
+  <si>
+    <t>P53_MaximumSubarray</t>
+  </si>
+  <si>
+    <t>[P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -758,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1345,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" ref="H15:H17" si="1">F15+H14</f>
+        <f t="shared" ref="H15:H16" si="1">F15+H14</f>
         <v>29</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -1450,50 +1457,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" ref="B17:B22" ca="1" si="4">TODAY()</f>
-        <v>44754</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>D25</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" ref="H18:H22" si="5">F18+H17</f>
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
+    <row r="18" spans="1:13" s="20" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44755</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" ref="H18:H22" si="4">F18+H17</f>
+        <v>39</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="19">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="K18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1502,8 +1507,8 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>44754</v>
+        <f t="shared" ref="B18:B22" ca="1" si="5">TODAY()</f>
+        <v>44755</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1523,8 +1528,8 @@
         <v>5</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>5</v>
@@ -1538,7 +1543,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>5</v>
@@ -1549,8 +1554,8 @@
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>44754</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>44755</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -1570,8 +1575,8 @@
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="5"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
@@ -1585,7 +1590,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
@@ -1596,8 +1601,8 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>44754</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>44755</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -1617,8 +1622,8 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1632,7 +1637,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
@@ -1643,8 +1648,8 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>44754</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>44755</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -1664,8 +1669,8 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1679,7 +1684,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1740,7 +1745,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="15" t="str">
-        <f>引用地址!H2</f>
+        <f>引用地址!H3</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E26" s="7"/>
@@ -1755,133 +1760,133 @@
     </row>
     <row r="27" spans="1:13">
       <c r="D27" s="15" t="str">
-        <f>引用地址!H3</f>
+        <f>引用地址!H4</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="D28" s="15" t="str">
-        <f>引用地址!H4</f>
+        <f>引用地址!H5</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="D29" s="15" t="str">
-        <f>引用地址!H5</f>
+        <f>引用地址!H6</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="D30" s="15" t="str">
-        <f>引用地址!H6</f>
+        <f>引用地址!H7</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="D31" s="15" t="str">
-        <f>引用地址!H7</f>
+        <f>引用地址!H8</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="D32" s="15" t="str">
-        <f>引用地址!H8</f>
+        <f>引用地址!H9</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="15" t="str">
-        <f>引用地址!H9</f>
+        <f>引用地址!H10</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="15" t="str">
-        <f>引用地址!H10</f>
+        <f>引用地址!H11</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="15" t="str">
-        <f>引用地址!H11</f>
+        <f>引用地址!H12</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="15" t="str">
-        <f>引用地址!H12</f>
+        <f>引用地址!H13</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="15" t="str">
-        <f>引用地址!H13</f>
+        <f>引用地址!H14</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="15" t="str">
-        <f>引用地址!H14</f>
+        <f>引用地址!H15</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="15" t="str">
-        <f>引用地址!H15</f>
+        <f>引用地址!H16</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="15" t="str">
-        <f>引用地址!H16</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>引用地址!H17</f>
+        <v xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="15" t="str">
-        <f>引用地址!H17</f>
+        <f>引用地址!H18</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="15" t="str">
-        <f>引用地址!H18</f>
+        <f>引用地址!H19</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="15" t="str">
-        <f>引用地址!H19</f>
+        <f>引用地址!H20</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="15" t="str">
-        <f>引用地址!H20</f>
+        <f>引用地址!H21</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="15" t="str">
-        <f>引用地址!H21</f>
+        <f>引用地址!H22</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="15">
-        <f>引用地址!H22</f>
+        <f>引用地址!H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="15">
-        <f>引用地址!H23</f>
+        <f>引用地址!H24</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="15">
-        <f>引用地址!H24</f>
+        <f>引用地址!H25</f>
         <v>0</v>
       </c>
     </row>
@@ -1918,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1946,34 +1951,17 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>39</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F21" si="0">D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H21" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>85</v>
@@ -1986,20 +1974,20 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F22" si="0">D3</f>
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H22" si="1">_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>85</v>
@@ -2025,7 +2013,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>85</v>
@@ -2051,7 +2039,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>85</v>
@@ -2059,6 +2047,7 @@
       <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2065,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>85</v>
@@ -2101,7 +2090,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>85</v>
@@ -2126,7 +2115,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>85</v>
@@ -2151,7 +2140,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>85</v>
@@ -2176,7 +2165,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>85</v>
@@ -2201,7 +2190,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>85</v>
@@ -2226,7 +2215,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>85</v>
@@ -2251,7 +2240,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>85</v>
@@ -2276,7 +2265,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>85</v>
@@ -2301,7 +2290,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>85</v>
@@ -2326,7 +2315,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>85</v>
@@ -2334,24 +2323,27 @@
       <c r="C17" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D17" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>P53_MaximumSubarray</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>85</v>
@@ -2376,7 +2368,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>85</v>
@@ -2401,7 +2393,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>85</v>
@@ -2426,7 +2418,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>85</v>
@@ -2450,10 +2442,29 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22">
+        <v>58</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="11"/>
@@ -2471,9 +2482,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="11"/>
@@ -2858,6 +2867,14 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA404DD-C303-4258-A421-D3F5386F485D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263349F4-C04A-484F-9498-E0CB422ACA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -346,6 +346,18 @@
   <si>
     <t>[P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P58_LengthOfLastWord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</t>
+  </si>
+  <si>
+    <t>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</t>
   </si>
 </sst>
 </file>
@@ -765,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1502,50 +1514,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
-        <f t="shared" ref="B18:B22" ca="1" si="5">TODAY()</f>
-        <v>44755</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>D25</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
+    <row r="19" spans="1:13" s="20" customFormat="1">
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16">
+        <v>44758</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="19">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="K19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1554,29 +1564,29 @@
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44755</v>
+        <f t="shared" ref="B19:B22" ca="1" si="5">TODAY()</f>
+        <v>44758</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>D25</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
@@ -1590,7 +1600,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
@@ -1602,28 +1612,28 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>44755</v>
+        <v>44758</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>D25</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1637,7 +1647,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
@@ -1649,28 +1659,28 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>44755</v>
+        <v>44758</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>D25</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1684,7 +1694,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1727,8 +1737,8 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="24" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;",""),D27:D28))</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;","")))</f>
+        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
@@ -1744,9 +1754,8 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="15" t="str">
-        <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="D26" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
@@ -1837,9 +1846,9 @@
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="15" t="str">
+      <c r="D40" s="15">
         <f>引用地址!H17</f>
-        <v xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:4">
@@ -1869,7 +1878,7 @@
     <row r="45" spans="4:4">
       <c r="D45" s="15" t="str">
         <f>引用地址!H22</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
     </row>
     <row r="46" spans="4:4">
@@ -1926,7 +1935,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2314,32 +2323,11 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
-        <v>53</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>P53_MaximumSubarray</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</v>
-      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
@@ -2451,19 +2439,22 @@
       <c r="C22" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D22" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>P58_LengthOfLastWord</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2885,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3985,6 +3976,77 @@
         <v>47</v>
       </c>
     </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263349F4-C04A-484F-9498-E0CB422ACA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F419F-7EB9-45D4-A9DE-098AF39D95DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="163">
   <si>
     <r>
       <rPr>
@@ -348,16 +348,209 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P58_LengthOfLastWord</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</t>
-  </si>
-  <si>
     <t>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy01/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy02/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy03/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy04/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy05/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy06/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy07/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy08/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy09/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy10/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy11/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy12/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy13/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy14/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy15/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy16/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy17/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy18/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy19/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy20/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy21/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy22/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy23/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy24/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy25/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy26/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy27/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy28/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy29/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy30/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy31/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy34/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy37/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy38/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy39/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy40/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy41/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy42/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy43/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy44/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy45/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy46/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy47/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy48/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy50/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy51/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy52/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy53/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy55/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy56/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy57/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy58/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy59/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
+  </si>
+  <si>
+    <t>P66_PlusOne</t>
+  </si>
+  <si>
+    <t>P67_AddBinary</t>
+  </si>
+  <si>
+    <t>P69_Sqrtx</t>
+  </si>
+  <si>
+    <t>P70_ClimbingStairs</t>
+  </si>
+  <si>
+    <t>P83_RemoveDuplicatesFromSortedList</t>
+  </si>
+  <si>
+    <t>P88_MergeSortedArray</t>
+  </si>
+  <si>
+    <t>P94_BinaryTreeInorderTraversal</t>
+  </si>
+  <si>
+    <t>P100_SameTree</t>
+  </si>
+  <si>
+    <t>[P66_PlusOne](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P66_PlusOne.java) &lt;br&gt; [P67_AddBinary](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P67_AddBinary.java) &lt;br&gt; [P69_Sqrtx](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P69_Sqrtx.java) &lt;br&gt; [P70_ClimbingStairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P70_ClimbingStairs.java) &lt;br&gt; [P83_RemoveDuplicatesFromSortedList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P83_RemoveDuplicatesFromSortedList.java) &lt;br&gt; [P88_MergeSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P88_MergeSortedArray.java) &lt;br&gt; [P94_BinaryTreeInorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P94_BinaryTreeInorderTraversal.java) &lt;br&gt; [P100_SameTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P100_SameTree.java)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -786,7 +979,7 @@
     <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="125.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="3.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" style="1"/>
     <col min="7" max="7" width="3.59765625" style="1" customWidth="1"/>
@@ -1525,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>5</v>
@@ -1559,50 +1752,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <f t="shared" ref="B19:B22" ca="1" si="5">TODAY()</f>
-        <v>44758</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>D25</f>
-        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
+    <row r="20" spans="1:13" s="20" customFormat="1">
+      <c r="A20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44759</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="19">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
+        <v>48</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="K20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1611,29 +1802,29 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44758</v>
+        <f t="shared" ref="B21:B22" ca="1" si="5">TODAY()</f>
+        <v>44759</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f>D25</f>
-        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
+        <f>D27</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1647,7 +1838,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
@@ -1659,28 +1850,28 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f>D25</f>
-        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
+        <f>D27</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1694,7 +1885,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1730,16 +1921,11 @@
       <c r="L24" s="9"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="83.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="24" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D26,"&lt;br&gt;","")))</f>
-        <v>[P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
-      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
       <c r="G25" s="7"/>
@@ -1754,9 +1940,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="7"/>
@@ -1767,158 +1951,287 @@
       <c r="L26" s="9"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="D27" s="15" t="str">
+    <row r="27" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="24" t="str">
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D28,"&lt;br&gt;",""),D29:D35))</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1">
+        <f>ROW()</f>
+        <v>28</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="15" t="str">
+        <f>引用地址!H2</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="1">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="D29" s="15" t="str">
+        <f>引用地址!H3</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="1">
+        <f>ROW()</f>
+        <v>30</v>
+      </c>
+      <c r="D30" s="15" t="str">
         <f>引用地址!H4</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="D28" s="15" t="str">
+    <row r="31" spans="1:13">
+      <c r="B31" s="1">
+        <f>ROW()</f>
+        <v>31</v>
+      </c>
+      <c r="D31" s="15" t="str">
         <f>引用地址!H5</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="D29" s="15" t="str">
+    <row r="32" spans="1:13">
+      <c r="B32" s="1">
+        <f>ROW()</f>
+        <v>32</v>
+      </c>
+      <c r="D32" s="15" t="str">
         <f>引用地址!H6</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="D30" s="15" t="str">
+    <row r="33" spans="2:4">
+      <c r="B33" s="1">
+        <f>ROW()</f>
+        <v>33</v>
+      </c>
+      <c r="D33" s="15" t="str">
         <f>引用地址!H7</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="D31" s="15" t="str">
+    <row r="34" spans="2:4">
+      <c r="B34" s="1">
+        <f>ROW()</f>
+        <v>34</v>
+      </c>
+      <c r="D34" s="15" t="str">
         <f>引用地址!H8</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="D32" s="15" t="str">
+    <row r="35" spans="2:4">
+      <c r="B35" s="1">
+        <f>ROW()</f>
+        <v>35</v>
+      </c>
+      <c r="D35" s="15" t="str">
         <f>引用地址!H9</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="15" t="str">
+    <row r="36" spans="2:4">
+      <c r="B36" s="1">
+        <f>ROW()</f>
+        <v>36</v>
+      </c>
+      <c r="D36" s="15" t="str">
         <f>引用地址!H10</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="15" t="str">
+    <row r="37" spans="2:4">
+      <c r="B37" s="1">
+        <f>ROW()</f>
+        <v>37</v>
+      </c>
+      <c r="D37" s="15" t="str">
         <f>引用地址!H11</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="15" t="str">
+    <row r="38" spans="2:4">
+      <c r="B38" s="1">
+        <f>ROW()</f>
+        <v>38</v>
+      </c>
+      <c r="D38" s="15" t="str">
         <f>引用地址!H12</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="15" t="str">
+    <row r="39" spans="2:4">
+      <c r="B39" s="1">
+        <f>ROW()</f>
+        <v>39</v>
+      </c>
+      <c r="D39" s="15" t="str">
         <f>引用地址!H13</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="15" t="str">
+    <row r="40" spans="2:4">
+      <c r="B40" s="1">
+        <f>ROW()</f>
+        <v>40</v>
+      </c>
+      <c r="D40" s="15" t="str">
         <f>引用地址!H14</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="15" t="str">
+    <row r="41" spans="2:4">
+      <c r="B41" s="1">
+        <f>ROW()</f>
+        <v>41</v>
+      </c>
+      <c r="D41" s="15" t="str">
         <f>引用地址!H15</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="15" t="str">
+    <row r="42" spans="2:4">
+      <c r="B42" s="1">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="D42" s="15" t="str">
         <f>引用地址!H16</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="15">
+    <row r="43" spans="2:4">
+      <c r="B43" s="1">
+        <f>ROW()</f>
+        <v>43</v>
+      </c>
+      <c r="D43" s="15" t="str">
         <f>引用地址!H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="15" t="str">
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="1">
+        <f>ROW()</f>
+        <v>44</v>
+      </c>
+      <c r="D44" s="15" t="str">
         <f>引用地址!H18</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="15" t="str">
+    <row r="45" spans="2:4">
+      <c r="B45" s="1">
+        <f>ROW()</f>
+        <v>45</v>
+      </c>
+      <c r="D45" s="15" t="str">
         <f>引用地址!H19</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="15" t="str">
+    <row r="46" spans="2:4">
+      <c r="B46" s="1">
+        <f>ROW()</f>
+        <v>46</v>
+      </c>
+      <c r="D46" s="15">
         <f>引用地址!H20</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1">
+        <f>ROW()</f>
+        <v>47</v>
+      </c>
+      <c r="D47" s="15">
         <f>引用地址!H21</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="1">
+        <f>ROW()</f>
+        <v>48</v>
+      </c>
+      <c r="D48" s="15">
         <f>引用地址!H22</f>
-        <v xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="1">
+        <f>ROW()</f>
+        <v>49</v>
+      </c>
+      <c r="D49" s="15">
         <f>引用地址!H23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="15">
+    <row r="50" spans="2:4">
+      <c r="B50" s="1">
+        <f>ROW()</f>
+        <v>50</v>
+      </c>
+      <c r="D50" s="15">
         <f>引用地址!H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="15">
-        <f>引用地址!H25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="2:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="2:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="2:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="2:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="2:4">
       <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="D57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1932,14 +2245,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
     <col min="2" max="2" width="3.73046875" customWidth="1"/>
     <col min="3" max="3" width="3.1328125" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" customWidth="1"/>
@@ -1960,18 +2274,29 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D2" s="14"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F19" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H19" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>39</v>
-      </c>
       <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
@@ -1983,21 +2308,18 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="0">D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H22" si="1">_xlfn.CONCAT(B3,C3,D3,E3,F3,G3)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
-        <v>40</v>
-      </c>
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
@@ -2021,9 +2343,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
-        <v>41</v>
-      </c>
       <c r="B5" s="11" t="s">
         <v>85</v>
       </c>
@@ -2047,9 +2366,6 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
-        <v>42</v>
-      </c>
       <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
@@ -2073,15 +2389,13 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
-        <v>43</v>
-      </c>
       <c r="B7" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
@@ -2098,15 +2412,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
-        <v>44</v>
-      </c>
       <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2123,15 +2435,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
-        <v>45</v>
-      </c>
       <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
@@ -2148,8 +2458,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
-        <v>46</v>
+      <c r="A10" t="str">
+        <f t="shared" ref="A3:A19" si="2">MID(D10,2,2*LEN(D10)-LENB(D10))</f>
+        <v/>
       </c>
       <c r="B10" s="11" t="s">
         <v>85</v>
@@ -2173,8 +2484,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>47</v>
+      <c r="A11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B11" s="11" t="s">
         <v>85</v>
@@ -2198,8 +2510,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
-        <v>48</v>
+      <c r="A12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B12" s="11" t="s">
         <v>85</v>
@@ -2223,8 +2536,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
-        <v>49</v>
+      <c r="A13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B13" s="11" t="s">
         <v>85</v>
@@ -2248,8 +2562,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
-        <v>50</v>
+      <c r="A14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B14" s="11" t="s">
         <v>85</v>
@@ -2273,8 +2588,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
-        <v>51</v>
+      <c r="A15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B15" s="11" t="s">
         <v>85</v>
@@ -2298,8 +2614,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16">
-        <v>52</v>
+      <c r="A16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B16" s="11" t="s">
         <v>85</v>
@@ -2323,15 +2640,35 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
-        <v>54</v>
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B18" s="11" t="s">
         <v>85</v>
@@ -2355,8 +2692,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
-        <v>55</v>
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="B19" s="11" t="s">
         <v>85</v>
@@ -2380,100 +2718,46 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
-        <v>56</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
-        <v>57</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
-        <v>58</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>P58_LengthOfLastWord</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P58_LengthOfLastWord](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P58_LengthOfLastWord.java)</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="11"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="11"/>
@@ -2842,30 +3126,6 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2876,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199:C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3696,14 +3956,14 @@
         <v>14</v>
       </c>
       <c r="F30" s="11" t="str">
-        <f t="shared" ref="F30:F38" si="3">D30</f>
+        <f t="shared" ref="F30:F93" si="3">D30</f>
         <v>P30_SubstringWithConcatenationOfAllWords</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="13" t="str">
-        <f t="shared" ref="H30:H38" si="4">_xlfn.CONCAT(B30,C30,D30,E30,F30,G30)</f>
+        <f t="shared" ref="H30:H93" si="4">_xlfn.CONCAT(B30,C30,D30,E30,F30,G30)</f>
         <v xml:space="preserve"> &lt;br&gt; [P30_SubstringWithConcatenationOfAllWords](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P30_SubstringWithConcatenationOfAllWords.java)</v>
       </c>
     </row>
@@ -3833,7 +4093,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F35" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3844,7 +4104,7 @@
       </c>
       <c r="H35" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P35_SearchInsertPosition](https://github.com/behappy01/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P35_SearchInsertPosition.java)</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3861,7 +4121,7 @@
         <v>88</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F36" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3872,7 +4132,7 @@
       </c>
       <c r="H36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P36_ValidSudoku](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P36_ValidSudoku.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P36_ValidSudoku](https://github.com/behappy02/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P36_ValidSudoku.java)</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3889,7 +4149,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F37" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3900,7 +4160,7 @@
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P37_SudokuSolver](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P37_SudokuSolver.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P37_SudokuSolver](https://github.com/behappy03/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P37_SudokuSolver.java)</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3917,7 +4177,7 @@
         <v>91</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F38" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3928,123 +4188,4609 @@
       </c>
       <c r="H38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P38_CountAndSay](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P38_CountAndSay.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P38_CountAndSay](https://github.com/behappy04/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P38_CountAndSay.java)</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
         <v>39</v>
       </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy05/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy06/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
         <v>41</v>
       </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy07/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy08/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
         <v>43</v>
       </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy09/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy10/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
         <v>45</v>
       </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy11/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
         <v>46</v>
       </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy12/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
         <v>47</v>
       </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy13/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
         <v>48</v>
       </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy14/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy15/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
         <v>50</v>
       </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy16/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
         <v>51</v>
       </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy17/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
         <v>52</v>
       </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy18/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="F53" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>P53_MaximumSubarray</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P53_MaximumSubarray](https://github.com/behappy19/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P53_MaximumSubarray.java)</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
         <v>54</v>
       </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy20/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
         <v>55</v>
       </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy21/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
         <v>56</v>
       </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy22/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
         <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy23/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy24/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy25/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy26/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy27/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy28/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy29/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy30/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy31/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v>P66_PlusOne</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P66_PlusOne](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P66_PlusOne.java)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v>P67_AddBinary</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P67_AddBinary](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P67_AddBinary.java)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy34/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>P69_Sqrtx</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P69_Sqrtx](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P69_Sqrtx.java)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>P70_ClimbingStairs</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P70_ClimbingStairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P70_ClimbingStairs.java)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy37/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy38/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy39/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy40/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy41/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy42/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy43/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy44/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy45/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy46/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy47/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy48/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>P83_RemoveDuplicatesFromSortedList</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P83_RemoveDuplicatesFromSortedList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P83_RemoveDuplicatesFromSortedList.java)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy50/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy51/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy52/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy53/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>P88_MergeSortedArray</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [P88_MergeSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P88_MergeSortedArray.java)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy55/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy56/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy57/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy58/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy59/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" ref="F94" si="5">D94</f>
+        <v>P94_BinaryTreeInorderTraversal</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" ref="H94" si="6">_xlfn.CONCAT(B94,C94,D94,E94,F94,G94)</f>
+        <v xml:space="preserve"> &lt;br&gt; [P94_BinaryTreeInorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P94_BinaryTreeInorderTraversal.java)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" ref="F94:F101" si="7">D95</f>
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" s="13" t="str">
+        <f t="shared" ref="H94:H101" si="8">_xlfn.CONCAT(B95,C95,D95,E95,F95,G95)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>87</v>
+      </c>
+      <c r="H97" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>87</v>
+      </c>
+      <c r="H99" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="7"/>
+        <v>P100_SameTree</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [P100_SameTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P100_SameTree.java)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" ref="F102:F165" si="9">D102</f>
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>87</v>
+      </c>
+      <c r="H102" s="13" t="str">
+        <f t="shared" ref="H102:H165" si="10">_xlfn.CONCAT(B102,C102,D102,E102,F102,G102)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>87</v>
+      </c>
+      <c r="H104" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>87</v>
+      </c>
+      <c r="H105" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
+      <c r="H109" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>87</v>
+      </c>
+      <c r="H110" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>87</v>
+      </c>
+      <c r="H111" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>87</v>
+      </c>
+      <c r="H112" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>87</v>
+      </c>
+      <c r="H113" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H116" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>87</v>
+      </c>
+      <c r="H117" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>87</v>
+      </c>
+      <c r="H118" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>87</v>
+      </c>
+      <c r="H119" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>87</v>
+      </c>
+      <c r="H120" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>87</v>
+      </c>
+      <c r="H123" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>87</v>
+      </c>
+      <c r="H124" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>87</v>
+      </c>
+      <c r="H126" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
+      <c r="H127" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>87</v>
+      </c>
+      <c r="H130" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F131" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>87</v>
+      </c>
+      <c r="H131" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>87</v>
+      </c>
+      <c r="H132" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>87</v>
+      </c>
+      <c r="H133" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>87</v>
+      </c>
+      <c r="H134" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F137" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>87</v>
+      </c>
+      <c r="H137" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>87</v>
+      </c>
+      <c r="H138" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F139" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>87</v>
+      </c>
+      <c r="H139" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>87</v>
+      </c>
+      <c r="H140" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" t="s">
+        <v>86</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F141" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>87</v>
+      </c>
+      <c r="H141" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" t="s">
+        <v>86</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F144" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>87</v>
+      </c>
+      <c r="H144" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" t="s">
+        <v>86</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F145" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>87</v>
+      </c>
+      <c r="H145" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>87</v>
+      </c>
+      <c r="H146" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F147" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>87</v>
+      </c>
+      <c r="H147" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>87</v>
+      </c>
+      <c r="H148" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F151" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>87</v>
+      </c>
+      <c r="H151" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>87</v>
+      </c>
+      <c r="H152" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" t="s">
+        <v>86</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>87</v>
+      </c>
+      <c r="H154" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F155" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H155" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F158" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>87</v>
+      </c>
+      <c r="H158" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F159" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>87</v>
+      </c>
+      <c r="H159" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" t="s">
+        <v>86</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F161" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>87</v>
+      </c>
+      <c r="H161" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="s">
+        <v>86</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F162" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>87</v>
+      </c>
+      <c r="H162" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F165" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>87</v>
+      </c>
+      <c r="H165" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F166" s="11">
+        <f t="shared" ref="F166:F221" si="11">D166</f>
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>87</v>
+      </c>
+      <c r="H166" s="13" t="str">
+        <f t="shared" ref="H166:H221" si="12">_xlfn.CONCAT(B166,C166,D166,E166,F166,G166)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F167" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>87</v>
+      </c>
+      <c r="H167" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F168" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" t="s">
+        <v>86</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F169" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>87</v>
+      </c>
+      <c r="H169" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" t="s">
+        <v>86</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F172" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+      <c r="H172" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F173" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>87</v>
+      </c>
+      <c r="H173" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>85</v>
+      </c>
+      <c r="C174" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F174" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>87</v>
+      </c>
+      <c r="H174" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>85</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F175" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>87</v>
+      </c>
+      <c r="H175" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F176" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>87</v>
+      </c>
+      <c r="H176" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177" t="s">
+        <v>86</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>85</v>
+      </c>
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F179" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>87</v>
+      </c>
+      <c r="H179" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F180" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>87</v>
+      </c>
+      <c r="H180" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" t="s">
+        <v>86</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>87</v>
+      </c>
+      <c r="H181" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>85</v>
+      </c>
+      <c r="C182" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F182" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>87</v>
+      </c>
+      <c r="H182" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F183" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>87</v>
+      </c>
+      <c r="H183" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" t="s">
+        <v>86</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" t="s">
+        <v>86</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F186" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>87</v>
+      </c>
+      <c r="H186" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F187" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>87</v>
+      </c>
+      <c r="H187" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F188" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>87</v>
+      </c>
+      <c r="H188" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" t="s">
+        <v>86</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F189" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>87</v>
+      </c>
+      <c r="H189" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F190" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>87</v>
+      </c>
+      <c r="H190" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>86</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F193" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>87</v>
+      </c>
+      <c r="H193" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" t="s">
+        <v>86</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F194" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>87</v>
+      </c>
+      <c r="H194" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>85</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F195" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F196" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>87</v>
+      </c>
+      <c r="H196" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F197" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>87</v>
+      </c>
+      <c r="H197" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" t="s">
+        <v>86</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>85</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F200" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>87</v>
+      </c>
+      <c r="H200" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" t="s">
+        <v>86</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F201" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>87</v>
+      </c>
+      <c r="H201" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>85</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F202" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>87</v>
+      </c>
+      <c r="H202" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F203" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>87</v>
+      </c>
+      <c r="H203" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F204" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>87</v>
+      </c>
+      <c r="H204" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" t="s">
+        <v>86</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F207" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>87</v>
+      </c>
+      <c r="H207" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>85</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F208" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>87</v>
+      </c>
+      <c r="H208" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F209" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>87</v>
+      </c>
+      <c r="H209" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F210" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H210" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F211" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>87</v>
+      </c>
+      <c r="H211" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" t="s">
+        <v>86</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>85</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F214" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>87</v>
+      </c>
+      <c r="H214" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F215" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>87</v>
+      </c>
+      <c r="H215" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" t="s">
+        <v>86</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F216" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>87</v>
+      </c>
+      <c r="H216" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>85</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F217" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>87</v>
+      </c>
+      <c r="H217" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F218" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>87</v>
+      </c>
+      <c r="H218" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>85</v>
+      </c>
+      <c r="C219" t="s">
+        <v>86</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H219" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H220" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F221" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>87</v>
+      </c>
+      <c r="H221" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
   </sheetData>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F419F-7EB9-45D4-A9DE-098AF39D95DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F3403-0919-42E1-BE72-7B52EFC81DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1550,14 +1550,12 @@
         <v>5</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" ref="F15:F22" si="0">IF(D15&lt;&gt;"",(LEN(D15)-LEN(SUBSTITUTE(D15,"&lt;br&gt;","")))/4+1,0)</f>
         <v>8</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" ref="H15:H16" si="1">F15+H14</f>
         <v>29</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -1593,28 +1591,24 @@
         <v>5</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" ref="J16:J22" si="2">J15+1</f>
         <v>13</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" ref="L16:L22" si="3">DATEDIF($B$4,B16,"d")</f>
         <v>21</v>
       </c>
       <c r="M16" s="16" t="s">
@@ -1679,28 +1673,24 @@
         <v>5</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" ref="H18:H22" si="4">F18+H17</f>
         <v>39</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="19">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -1724,28 +1714,24 @@
         <v>5</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -1769,28 +1755,24 @@
         <v>5</v>
       </c>
       <c r="F20" s="19">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="19">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="19">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M20" s="16" t="s">
@@ -1802,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21:B22" ca="1" si="5">TODAY()</f>
+        <f t="shared" ref="B21:B22" ca="1" si="0">TODAY()</f>
         <v>44759</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1810,34 +1792,34 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>D27</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="F15:F22" si="1">IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f t="shared" ref="H18:H22" si="2">F21+H20</f>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J16:J22" si="3">J20+1</f>
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="L16:L22" ca="1" si="4">DATEDIF($B$4,B21,"d")</f>
         <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1849,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v>44759</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1857,34 +1839,34 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>D27</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>27</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1958,8 +1940,8 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="24" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D28,"&lt;br&gt;",""),D29:D35))</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D28,"&lt;br&gt;",""),D29:D29))</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F3403-0919-42E1-BE72-7B52EFC81DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ACDB1B-2631-4767-94CF-12D1DCEDE140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -551,6 +551,30 @@
   <si>
     <t>[P66_PlusOne](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P66_PlusOne.java) &lt;br&gt; [P67_AddBinary](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P67_AddBinary.java) &lt;br&gt; [P69_Sqrtx](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P69_Sqrtx.java) &lt;br&gt; [P70_ClimbingStairs](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P70_ClimbingStairs.java) &lt;br&gt; [P83_RemoveDuplicatesFromSortedList](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P83_RemoveDuplicatesFromSortedList.java) &lt;br&gt; [P88_MergeSortedArray](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P88_MergeSortedArray.java) &lt;br&gt; [P94_BinaryTreeInorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P94_BinaryTreeInorderTraversal.java) &lt;br&gt; [P100_SameTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P100_SameTree.java)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P101_SymmetricTree</t>
+  </si>
+  <si>
+    <t>P104_MaximumDepthOfBinaryTree</t>
+  </si>
+  <si>
+    <t>P108_ConvertSortedArrayToBinarySearchTree</t>
+  </si>
+  <si>
+    <t>P110_BalancedBinaryTree</t>
+  </si>
+  <si>
+    <t>P111_MinimumDepthOfBinaryTree</t>
+  </si>
+  <si>
+    <t>P112_PathSum</t>
+  </si>
+  <si>
+    <t>P118_PascalsTriangle</t>
+  </si>
+  <si>
+    <t>P119_PascalsTriangleIi</t>
   </si>
 </sst>
 </file>
@@ -970,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1792,34 +1816,34 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>D27</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java) &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java) &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java) &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java) &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java) &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java) &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java) &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F15:F22" si="1">IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>2</v>
+        <f t="shared" ref="F21:F22" si="1">IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" ref="H18:H22" si="2">F21+H20</f>
-        <v>50</v>
+        <f t="shared" ref="H21:H22" si="2">F21+H20</f>
+        <v>56</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ref="J16:J22" si="3">J20+1</f>
+        <f t="shared" ref="J21:J22" si="3">J20+1</f>
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L16:L22" ca="1" si="4">DATEDIF($B$4,B21,"d")</f>
+        <f t="shared" ref="L21:L22" ca="1" si="4">DATEDIF($B$4,B21,"d")</f>
         <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1839,21 +1863,21 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>D27</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java) &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java) &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java) &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java) &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java) &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java) &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java) &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1940,8 +1964,8 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="24" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D28,"&lt;br&gt;",""),D29:D29))</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D28,"&lt;br&gt;",""),D29:D35))</f>
+        <v>[P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java) &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java) &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java) &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java) &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java) &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java) &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java) &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
@@ -1962,7 +1986,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="15" t="str">
         <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java)</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
@@ -1981,7 +2005,7 @@
       </c>
       <c r="D29" s="15" t="str">
         <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java)</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1991,7 +2015,7 @@
       </c>
       <c r="D30" s="15" t="str">
         <f>引用地址!H4</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java)</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2001,7 +2025,7 @@
       </c>
       <c r="D31" s="15" t="str">
         <f>引用地址!H5</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java)</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2011,7 +2035,7 @@
       </c>
       <c r="D32" s="15" t="str">
         <f>引用地址!H6</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java)</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -2021,7 +2045,7 @@
       </c>
       <c r="D33" s="15" t="str">
         <f>引用地址!H7</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java)</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -2031,7 +2055,7 @@
       </c>
       <c r="D34" s="15" t="str">
         <f>引用地址!H8</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java)</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -2041,7 +2065,7 @@
       </c>
       <c r="D35" s="15" t="str">
         <f>引用地址!H9</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -2230,7 +2254,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2256,192 +2280,232 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2">
+        <v>101</v>
+      </c>
       <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <f t="shared" ref="F2:F19" si="0">D2</f>
-        <v>0</v>
+        <v>P101_SymmetricTree</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H19" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3">
+        <v>104</v>
+      </c>
       <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P104_MaximumDepthOfBinaryTree</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4">
+        <v>108</v>
+      </c>
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P108_ConvertSortedArrayToBinarySearchTree</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java)</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5">
+        <v>110</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P110_BalancedBinaryTree</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java)</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6">
+        <v>111</v>
+      </c>
       <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P111_MinimumDepthOfBinaryTree</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java)</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7">
+        <v>112</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P112_PathSum</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java)</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8">
+        <v>118</v>
+      </c>
       <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P118_PascalsTriangle</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java)</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9">
+        <v>119</v>
+      </c>
       <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P119_PascalsTriangleIi</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="str">
-        <f t="shared" ref="A3:A19" si="2">MID(D10,2,2*LEN(D10)-LENB(D10))</f>
+        <f t="shared" ref="A10:A19" si="2">MID(D10,2,2*LEN(D10)-LENB(D10))</f>
         <v/>
       </c>
       <c r="B10" s="11" t="s">
@@ -3120,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B199" sqref="B199:C221"/>
     </sheetView>
   </sheetViews>
@@ -5611,14 +5675,14 @@
         <v>149</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" ref="F94:F101" si="7">D95</f>
+        <f t="shared" ref="F95:F101" si="7">D95</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>87</v>
       </c>
       <c r="H95" s="13" t="str">
-        <f t="shared" ref="H94:H101" si="8">_xlfn.CONCAT(B95,C95,D95,E95,F95,G95)</f>
+        <f t="shared" ref="H95:H101" si="8">_xlfn.CONCAT(B95,C95,D95,E95,F95,G95)</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ACDB1B-2631-4767-94CF-12D1DCEDE140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E696EEC-AD2D-403B-AF71-4087BC9EB0DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="172">
   <si>
     <r>
       <rPr>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>P119_PascalsTriangleIi</t>
+  </si>
+  <si>
+    <t>[P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java) &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java) &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java) &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java) &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java) &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java) &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java) &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</t>
   </si>
 </sst>
 </file>
@@ -994,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1803,50 +1806,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" ref="B21:B22" ca="1" si="0">TODAY()</f>
-        <v>44759</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f>D27</f>
-        <v>[P101_SymmetricTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P101_SymmetricTree.java) &lt;br&gt; [P104_MaximumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P104_MaximumDepthOfBinaryTree.java) &lt;br&gt; [P108_ConvertSortedArrayToBinarySearchTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P108_ConvertSortedArrayToBinarySearchTree.java) &lt;br&gt; [P110_BalancedBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P110_BalancedBinaryTree.java) &lt;br&gt; [P111_MinimumDepthOfBinaryTree](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P111_MinimumDepthOfBinaryTree.java) &lt;br&gt; [P112_PathSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P112_PathSum.java) &lt;br&gt; [P118_PascalsTriangle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P118_PascalsTriangle.java) &lt;br&gt; [P119_PascalsTriangleIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P119_PascalsTriangleIi.java)</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" ref="F21:F22" si="1">IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
+    <row r="21" spans="1:13" s="20" customFormat="1">
+      <c r="A21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44760</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" ref="F21:F22" si="0">IF(D21&lt;&gt;"",(LEN(D21)-LEN(SUBSTITUTE(D21,"&lt;br&gt;","")))/4+1,0)</f>
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" ref="H21:H22" si="2">F21+H20</f>
+      <c r="G21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" ref="H21:H22" si="1">F21+H20</f>
         <v>56</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" ref="J21:J22" si="3">J20+1</f>
+      <c r="I21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" ref="J21:J22" si="2">J20+1</f>
         <v>18</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" ref="L21:L22" ca="1" si="4">DATEDIF($B$4,B21,"d")</f>
-        <v>27</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="K21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" ref="L21:L22" si="3">DATEDIF($B$4,B21,"d")</f>
+        <v>28</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1855,8 +1856,8 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44759</v>
+        <f t="shared" ref="B21:B22" ca="1" si="4">TODAY()</f>
+        <v>44760</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -1869,29 +1870,29 @@
         <v>5</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
+        <v>64</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765B7F8-EDF7-41B6-AADE-97EC56E013CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28D4E4-775E-48F7-AC36-EEC202493B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A42:XFD46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="13">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>5</v>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="L22" s="16">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>5</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B23" s="22">
         <f ca="1">TODAY()</f>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>5</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L26" ca="1" si="7">DATEDIF($B$4,B23,"d")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="22" t="s">
         <v>5</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B24" s="22">
         <f t="shared" ref="B24:B30" ca="1" si="8">TODAY()</f>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>5</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B25" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>5</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="L25" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>5</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B26" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>5</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B27" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L27" s="24">
         <f t="shared" ref="L27:L30" ca="1" si="11">DATEDIF($B$4,B27,"d")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>5</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B28" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>5</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" s="22" t="s">
         <v>5</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B29" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="L29" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" s="22" t="s">
         <v>5</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B30" s="22">
         <f t="shared" ca="1" si="8"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>5</v>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="L30" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>5</v>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28D4E4-775E-48F7-AC36-EEC202493B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56DD04-5277-42AE-82B1-37E0C73E44F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>P145_BinaryTreePostorderTraversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java)</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1884,7 +1896,7 @@
       </c>
       <c r="D22" s="15" t="str">
         <f>D33</f>
-        <v>[P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java) &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java) &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java) &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java) &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java) &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>5</v>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="D23" s="23" t="str">
         <f t="shared" ref="D23:D30" si="4">D34</f>
-        <v xml:space="preserve"> &lt;br&gt; [P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>5</v>
@@ -1978,7 +1990,7 @@
       </c>
       <c r="D24" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>5</v>
@@ -2025,7 +2037,7 @@
       </c>
       <c r="D25" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>5</v>
@@ -2072,7 +2084,7 @@
       </c>
       <c r="D26" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>5</v>
@@ -2119,7 +2131,7 @@
       </c>
       <c r="D27" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>5</v>
@@ -2166,7 +2178,7 @@
       </c>
       <c r="D28" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>5</v>
@@ -2332,7 +2344,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="21" t="str">
         <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35:D39))</f>
-        <v>[P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java) &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java) &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java) &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java) &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java) &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -2353,7 +2365,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="str">
         <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -2372,7 +2384,7 @@
       </c>
       <c r="D35" s="12" t="str">
         <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2382,7 +2394,7 @@
       </c>
       <c r="D36" s="12" t="str">
         <f>引用地址!H4</f>
-        <v xml:space="preserve"> &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2392,7 +2404,7 @@
       </c>
       <c r="D37" s="12" t="str">
         <f>引用地址!H5</f>
-        <v xml:space="preserve"> &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2402,7 +2414,7 @@
       </c>
       <c r="D38" s="12" t="str">
         <f>引用地址!H6</f>
-        <v xml:space="preserve"> &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2412,7 +2424,7 @@
       </c>
       <c r="D39" s="12" t="str">
         <f>引用地址!H7</f>
-        <v xml:space="preserve"> &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2470,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2497,171 +2509,141 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>121</v>
-      </c>
       <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F9" si="0">D2</f>
-        <v>P121_BestTimeToBuyAndSellStock</v>
+      <c r="F2">
+        <f t="shared" ref="F2:F7" si="0">D2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H9" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java)</v>
+        <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>125</v>
-      </c>
       <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>P125_ValidPalindrome</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
-        <v>136</v>
-      </c>
       <c r="B4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>P136_SingleNumber</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
-        <v>141</v>
-      </c>
       <c r="B5" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>P141_LinkedListCycle</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
-        <v>144</v>
-      </c>
       <c r="B6" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>177</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>P144_BinaryTreePreorderTraversal</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
-        <v>145</v>
-      </c>
       <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>P145_BinaryTreePostorderTraversal</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2676,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F9" si="2">D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2699,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2712,7 +2694,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:A19" si="2">MID(D10,2,2*LEN(D10)-LENB(D10))</f>
+        <f t="shared" ref="A10:A19" si="3">MID(D10,2,2*LEN(D10)-LENB(D10))</f>
         <v/>
       </c>
       <c r="B10" s="8" t="s">
@@ -2725,20 +2707,20 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F19" si="3">D10</f>
+        <f t="shared" ref="F10:F19" si="4">D10</f>
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H19" si="4">_xlfn.CONCAT(B10,C10,D10,E10,F10,G10)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B11" s="8" t="s">
@@ -2751,20 +2733,20 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B12" s="8" t="s">
@@ -2777,20 +2759,20 @@
         <v>14</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B13" s="8" t="s">
@@ -2803,20 +2785,20 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B14" s="8" t="s">
@@ -2829,20 +2811,20 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H10:H19" si="5">_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B15" s="8" t="s">
@@ -2855,20 +2837,20 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B16" s="8" t="s">
@@ -2881,20 +2863,20 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B17" s="8" t="s">
@@ -2907,20 +2889,20 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B18" s="8" t="s">
@@ -2933,20 +2915,20 @@
         <v>14</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B19" s="8" t="s">
@@ -2959,14 +2941,14 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3391,14 +3373,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="6.3984375" customWidth="1"/>
     <col min="3" max="3" width="4.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="11"/>
     <col min="8" max="8" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6554,19 +6537,20 @@
       <c r="C121" t="s">
         <v>86</v>
       </c>
+      <c r="D121" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="E121" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="F121" t="s">
+        <v>173</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H121" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="H121" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6654,19 +6638,20 @@
       <c r="C125" t="s">
         <v>86</v>
       </c>
+      <c r="D125" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="E125" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F125" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="G125" t="s">
         <v>87</v>
       </c>
-      <c r="H125" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="H125" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6929,19 +6914,20 @@
       <c r="C136" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="D136" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="E136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="F136" t="s">
+        <v>175</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H136" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="H136" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7054,19 +7040,20 @@
       <c r="C141" t="s">
         <v>86</v>
       </c>
+      <c r="D141" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="E141" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F141" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="G141" t="s">
         <v>87</v>
       </c>
-      <c r="H141" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="H141" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7129,44 +7116,50 @@
       <c r="C144" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="D144" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="E144" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F144" s="8">
+        <v>14</v>
+      </c>
+      <c r="F144" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G144" t="s">
-        <v>87</v>
-      </c>
-      <c r="H144" s="10" t="str">
+        <v>P144_BinaryTreePreorderTraversal</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H144" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy61/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java)</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" t="s">
-        <v>86</v>
+      <c r="B145" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F145" s="8">
+        <v>14</v>
+      </c>
+      <c r="F145" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G145" t="s">
-        <v>87</v>
-      </c>
-      <c r="H145" s="10" t="str">
+        <v>P145_BinaryTreePostorderTraversal</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H145" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy62/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java)</v>
       </c>
     </row>
     <row r="146" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56DD04-5277-42AE-82B1-37E0C73E44F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B42140-555F-4DDF-AC84-C251087C9B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java)</t>
+  </si>
+  <si>
+    <t>P160_IntersectionOfTwoLinkedLists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[P121_BestTimeToBuyAndSellStock](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P121_BestTimeToBuyAndSellStock.java) &lt;br&gt; [P125_ValidPalindrome](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P125_ValidPalindrome.java) &lt;br&gt; [P136_SingleNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P136_SingleNumber.java) &lt;br&gt; [P141_LinkedListCycle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P141_LinkedListCycle.java) &lt;br&gt; [P144_BinaryTreePreorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P144_BinaryTreePreorderTraversal.java) &lt;br&gt; [P145_BinaryTreePostorderTraversal](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P145_BinaryTreePostorderTraversal.java) </t>
+  </si>
+  <si>
+    <t>[P160_IntersectionOfTwoLinkedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P160_IntersectionOfTwoLinkedLists.java)</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1040,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1839,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="17" customFormat="1" hidden="1">
+    <row r="21" spans="1:13" s="17" customFormat="1">
       <c r="A21" s="13" t="s">
         <v>5</v>
       </c>
@@ -1894,9 +1903,8 @@
       <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="15" t="str">
-        <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      <c r="D22" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>5</v>
@@ -1930,50 +1938,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="22">
-        <f ca="1">TODAY()</f>
-        <v>44767</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="23" t="str">
-        <f t="shared" ref="D23:D30" si="4">D34</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" ref="F23:F26" si="5">IF(D23&lt;&gt;"",(LEN(D23)-LEN(SUBSTITUTE(D23,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24">
-        <f t="shared" ref="H23:H26" si="6">F23+H22</f>
-        <v>64</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="2"/>
+    <row r="23" spans="1:13" s="17" customFormat="1">
+      <c r="A23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13">
+        <v>44770</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16">
+        <v>63</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="16">
         <v>20</v>
       </c>
-      <c r="K23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="24">
-        <f t="shared" ref="L23:L26" ca="1" si="7">DATEDIF($B$4,B23,"d")</f>
-        <v>35</v>
-      </c>
-      <c r="M23" s="22" t="s">
+      <c r="K23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16">
+        <v>38</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1982,29 +1984,29 @@
         <v>5</v>
       </c>
       <c r="B24" s="22">
-        <f t="shared" ref="B24:B30" ca="1" si="8">TODAY()</f>
-        <v>44767</v>
+        <f t="shared" ref="B24:B30" ca="1" si="4">TODAY()</f>
+        <v>44770</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="F23:F26" si="5">IF(D24&lt;&gt;"",(LEN(D24)-LEN(SUBSTITUTE(D24,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>8</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" ref="H23:H26" si="6">F24+H23</f>
+        <v>71</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>5</v>
@@ -2017,8 +2019,8 @@
         <v>5</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <f t="shared" ref="L23:L26" ca="1" si="7">DATEDIF($B$4,B24,"d")</f>
+        <v>38</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>5</v>
@@ -2029,29 +2031,29 @@
         <v>5</v>
       </c>
       <c r="B25" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="24">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>5</v>
@@ -2065,7 +2067,7 @@
       </c>
       <c r="L25" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>5</v>
@@ -2076,29 +2078,29 @@
         <v>5</v>
       </c>
       <c r="B26" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="24">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>5</v>
@@ -2112,7 +2114,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>5</v>
@@ -2123,29 +2125,29 @@
         <v>5</v>
       </c>
       <c r="B27" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" ref="F27:F30" si="9">IF(D27&lt;&gt;"",(LEN(D27)-LEN(SUBSTITUTE(D27,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>2</v>
+        <f t="shared" ref="F27:F30" si="8">IF(D27&lt;&gt;"",(LEN(D27)-LEN(SUBSTITUTE(D27,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>8</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" ref="H27:H30" si="10">F27+H26</f>
-        <v>72</v>
+        <f t="shared" ref="H27:H30" si="9">F27+H26</f>
+        <v>95</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>5</v>
@@ -2158,8 +2160,8 @@
         <v>5</v>
       </c>
       <c r="L27" s="24">
-        <f t="shared" ref="L27:L30" ca="1" si="11">DATEDIF($B$4,B27,"d")</f>
-        <v>35</v>
+        <f t="shared" ref="L27:L30" ca="1" si="10">DATEDIF($B$4,B27,"d")</f>
+        <v>38</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>5</v>
@@ -2170,29 +2172,29 @@
         <v>5</v>
       </c>
       <c r="B28" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="24">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="24">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>5</v>
@@ -2205,8 +2207,8 @@
         <v>5</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
       </c>
       <c r="M28" s="22" t="s">
         <v>5</v>
@@ -2217,29 +2219,29 @@
         <v>5</v>
       </c>
       <c r="B29" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="24">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="24">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>5</v>
@@ -2252,8 +2254,8 @@
         <v>5</v>
       </c>
       <c r="L29" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
       </c>
       <c r="M29" s="22" t="s">
         <v>5</v>
@@ -2264,29 +2266,29 @@
         <v>5</v>
       </c>
       <c r="B30" s="22">
-        <f t="shared" ca="1" si="8"/>
-        <v>44767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44770</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>D33</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="24">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24">
-        <f t="shared" si="10"/>
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>5</v>
@@ -2299,8 +2301,8 @@
         <v>5</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>5</v>
@@ -2343,8 +2345,8 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="21" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35:D39))</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35:D41))</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -2483,7 +2485,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="B2:C19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2658,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F2:F9" si="2">D8</f>
+        <f t="shared" ref="F8:F9" si="2">D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2818,7 +2820,7 @@
         <v>87</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ref="H10:H19" si="5">_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
+        <f t="shared" ref="H14:H19" si="5">_xlfn.CONCAT(B14,C14,D14,E14,F14,G14)</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -3374,7 +3376,7 @@
   <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD145"/>
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -7522,19 +7524,22 @@
       <c r="C160" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="D160" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="E160" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F160" s="8">
+        <v>14</v>
+      </c>
+      <c r="F160" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G160" t="s">
-        <v>87</v>
-      </c>
-      <c r="H160" s="10" t="str">
+        <v>P160_IntersectionOfTwoLinkedLists</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy63/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P160_IntersectionOfTwoLinkedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P160_IntersectionOfTwoLinkedLists.java)</v>
       </c>
     </row>
     <row r="161" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B42140-555F-4DDF-AC84-C251087C9B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED560F-8259-491A-9358-3EB4B4F0AE36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="188">
   <si>
     <r>
       <rPr>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>[P160_IntersectionOfTwoLinkedLists](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P160_IntersectionOfTwoLinkedLists.java)</t>
+  </si>
+  <si>
+    <t>P168_ExcelSheetColumnTitle</t>
+  </si>
+  <si>
+    <t>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1848,7 +1854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="17" customFormat="1">
+    <row r="21" spans="1:13" s="17" customFormat="1" hidden="1">
       <c r="A21" s="13" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="17" customFormat="1">
+    <row r="22" spans="1:13" s="17" customFormat="1" hidden="1">
       <c r="A22" s="13" t="s">
         <v>5</v>
       </c>
@@ -1979,50 +1985,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="22">
-        <f t="shared" ref="B24:B30" ca="1" si="4">TODAY()</f>
-        <v>44770</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="23" t="str">
-        <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="24">
-        <f t="shared" ref="F23:F26" si="5">IF(D24&lt;&gt;"",(LEN(D24)-LEN(SUBSTITUTE(D24,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>8</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="24">
-        <f t="shared" ref="H23:H26" si="6">F24+H23</f>
-        <v>71</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="24">
+    <row r="24" spans="1:13" s="17" customFormat="1">
+      <c r="A24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="13">
+        <v>44776</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F26" si="4">IF(D24&lt;&gt;"",(LEN(D24)-LEN(SUBSTITUTE(D24,"&lt;br&gt;","")))/4+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" ref="H24:H26" si="5">F24+H23</f>
+        <v>64</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="16">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="24">
-        <f t="shared" ref="L23:L26" ca="1" si="7">DATEDIF($B$4,B24,"d")</f>
-        <v>38</v>
-      </c>
-      <c r="M24" s="22" t="s">
+      <c r="K24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" ref="L24:L26" si="6">DATEDIF($B$4,B24,"d")</f>
+        <v>44</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2031,29 +2035,29 @@
         <v>5</v>
       </c>
       <c r="B25" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ref="B24:B30" ca="1" si="7">TODAY()</f>
+        <v>44776</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="24">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="24">
-        <f t="shared" si="6"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>5</v>
@@ -2066,8 +2070,8 @@
         <v>5</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>5</v>
@@ -2078,29 +2082,29 @@
         <v>5</v>
       </c>
       <c r="B26" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44776</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="24">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>5</v>
@@ -2113,8 +2117,8 @@
         <v>5</v>
       </c>
       <c r="L26" s="24">
-        <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>5</v>
@@ -2125,29 +2129,29 @@
         <v>5</v>
       </c>
       <c r="B27" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44776</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" ref="F27:F30" si="8">IF(D27&lt;&gt;"",(LEN(D27)-LEN(SUBSTITUTE(D27,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" ref="H27:H30" si="9">F27+H26</f>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>5</v>
@@ -2161,7 +2165,7 @@
       </c>
       <c r="L27" s="24">
         <f t="shared" ref="L27:L30" ca="1" si="10">DATEDIF($B$4,B27,"d")</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>5</v>
@@ -2172,29 +2176,29 @@
         <v>5</v>
       </c>
       <c r="B28" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44776</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>5</v>
@@ -2208,7 +2212,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M28" s="22" t="s">
         <v>5</v>
@@ -2219,29 +2223,29 @@
         <v>5</v>
       </c>
       <c r="B29" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44776</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>5</v>
@@ -2255,7 +2259,7 @@
       </c>
       <c r="L29" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M29" s="22" t="s">
         <v>5</v>
@@ -2266,29 +2270,29 @@
         <v>5</v>
       </c>
       <c r="B30" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>44770</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44776</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="23" t="str">
         <f>D33</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="24">
         <f t="shared" si="9"/>
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>5</v>
@@ -2302,7 +2306,7 @@
       </c>
       <c r="L30" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>5</v>
@@ -2345,8 +2349,8 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="21" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35:D41))</f>
-        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java) &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;","")))</f>
+        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -2367,7 +2371,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="str">
         <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -2484,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E4BF9-F4CC-4BBF-9C96-10E0A4F3D969}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2511,26 +2515,31 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2">
+        <v>168</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <f t="shared" ref="F2:F7" si="0">D2</f>
-        <v>0</v>
+        <v>P168_ExcelSheetColumnTitle</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED560F-8259-491A-9358-3EB4B4F0AE36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC398B7B-7231-4D82-B4B6-50127E496360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</t>
+  </si>
+  <si>
+    <t>P169_MajorityElement</t>
+  </si>
+  <si>
+    <t>P171_ExcelSheetColumnNumber</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2030,50 +2036,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="22">
-        <f t="shared" ref="B24:B30" ca="1" si="7">TODAY()</f>
-        <v>44776</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="23" t="str">
+    <row r="25" spans="1:13" s="17" customFormat="1">
+      <c r="A25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <f t="shared" ref="B25:B30" ca="1" si="7">TODAY()</f>
+        <v>44777</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="24">
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="24">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="16">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="24">
+        <v>66</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="16">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" s="24">
+      <c r="K25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="M25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2083,28 +2089,28 @@
       </c>
       <c r="B26" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="24">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>5</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>5</v>
@@ -2130,28 +2136,28 @@
       </c>
       <c r="B27" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="23" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" ref="F27:F30" si="8">IF(D27&lt;&gt;"",(LEN(D27)-LEN(SUBSTITUTE(D27,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" ref="H27:H30" si="9">F27+H26</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>5</v>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="L27" s="24">
         <f t="shared" ref="L27:L30" ca="1" si="10">DATEDIF($B$4,B27,"d")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>5</v>
@@ -2177,28 +2183,28 @@
       </c>
       <c r="B28" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="23" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>5</v>
@@ -2212,7 +2218,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M28" s="22" t="s">
         <v>5</v>
@@ -2224,28 +2230,28 @@
       </c>
       <c r="B29" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="23" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>5</v>
@@ -2259,7 +2265,7 @@
       </c>
       <c r="L29" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M29" s="22" t="s">
         <v>5</v>
@@ -2271,28 +2277,28 @@
       </c>
       <c r="B30" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="23" t="str">
         <f>D33</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="24">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>5</v>
@@ -2306,7 +2312,7 @@
       </c>
       <c r="L30" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>5</v>
@@ -2349,8 +2355,8 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="21" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;","")))</f>
-        <v>[P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35))</f>
+        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -2371,7 +2377,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="str">
         <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java)</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -2390,7 +2396,7 @@
       </c>
       <c r="D35" s="12" t="str">
         <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2460,7 +2466,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="D44" s="1"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:13">
       <c r="D45" s="1"/>
@@ -2489,7 +2495,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2516,7 +2522,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>85</v>
@@ -2525,44 +2531,49 @@
         <v>86</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F7" si="0">D2</f>
-        <v>P168_ExcelSheetColumnTitle</v>
+        <v>P169_MajorityElement</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3">
+        <v>171</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>P171_ExcelSheetColumnNumber</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3384,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -7736,44 +7747,50 @@
       <c r="C168" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="D168" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="E168" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F168" s="8">
+        <v>14</v>
+      </c>
+      <c r="F168" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G168" t="s">
-        <v>87</v>
-      </c>
-      <c r="H168" s="10" t="str">
+        <v>P168_ExcelSheetColumnTitle</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy64/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P168_ExcelSheetColumnTitle](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P168_ExcelSheetColumnTitle.java)</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
         <v>169</v>
       </c>
-      <c r="B169" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" t="s">
-        <v>86</v>
+      <c r="B169" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F169" s="8">
+        <v>14</v>
+      </c>
+      <c r="F169" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G169" t="s">
-        <v>87</v>
-      </c>
-      <c r="H169" s="10" t="str">
+        <v>P169_MajorityElement</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy65/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java)</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7805,25 +7822,28 @@
       <c r="A171">
         <v>171</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>P171_ExcelSheetColumnNumber</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
       </c>
     </row>
     <row r="172" spans="1:8">

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC398B7B-7231-4D82-B4B6-50127E496360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607CCB6-166E-4A21-ACD0-E68666187998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2041,7 +2041,6 @@
         <v>5</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" ref="B25:B30" ca="1" si="7">TODAY()</f>
         <v>44777</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -2076,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="M25" s="13" t="s">
@@ -2088,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="22">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="B25:B30" ca="1" si="7">TODAY()</f>
         <v>44777</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -3395,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A171" sqref="A171:XFD171"/>
     </sheetView>
   </sheetViews>

--- a/auto.xlsx
+++ b/auto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607CCB6-166E-4A21-ACD0-E68666187998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D22E24-AACF-4885-8AC9-06D6C852D51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -363,37 +363,19 @@
     <t>](https://github.com/behappy04/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
-    <t>](https://github.com/behappy05/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
-    <t>](https://github.com/behappy06/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
     <t>](https://github.com/behappy07/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
     <t>](https://github.com/behappy08/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
-    <t>](https://github.com/behappy09/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
     <t>](https://github.com/behappy10/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
     <t>](https://github.com/behappy11/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
-    <t>](https://github.com/behappy12/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
     <t>](https://github.com/behappy13/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
-    <t>](https://github.com/behappy14/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
-  </si>
-  <si>
-    <t>](https://github.com/behappy15/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
   </si>
   <si>
     <t>](https://github.com/behappy16/LeetCodeSolution/tree/master/src/leetcode/editor/cn/</t>
@@ -632,6 +614,27 @@
   </si>
   <si>
     <t>P171_ExcelSheetColumnNumber</t>
+  </si>
+  <si>
+    <t>P39_CombinationSum</t>
+  </si>
+  <si>
+    <t>P40_CombinationSumIi</t>
+  </si>
+  <si>
+    <t>P43_MultiplyStrings</t>
+  </si>
+  <si>
+    <t>P48_RotateImage</t>
+  </si>
+  <si>
+    <t>P46_Permutations</t>
+  </si>
+  <si>
+    <t>P49_GroupAnagrams</t>
+  </si>
+  <si>
+    <t>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java) &lt;br&gt; [P39_CombinationSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P39_CombinationSum.java) &lt;br&gt; [P40_CombinationSumIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P40_CombinationSumIi.java) &lt;br&gt; [P43_MultiplyStrings](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P43_MultiplyStrings.java) &lt;br&gt; [P46_Permutations](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P46_Permutations.java) &lt;br&gt; [P48_RotateImage](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P48_RotateImage.java) &lt;br&gt; [P49_GroupAnagrams](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P49_GroupAnagrams.java)</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1120,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="17" customFormat="1">
+    <row r="3" spans="1:14" s="17" customFormat="1" hidden="1">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>5</v>
@@ -1871,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>5</v>
@@ -1916,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>5</v>
@@ -1950,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="17" customFormat="1">
+    <row r="23" spans="1:13" s="17" customFormat="1" hidden="1">
       <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
@@ -1961,30 +1964,34 @@
         <v>5</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="16">
+        <f t="shared" ref="F23:F26" si="4">IF(D23&lt;&gt;"",(LEN(D23)-LEN(SUBSTITUTE(D23,"&lt;br&gt;","")))/4+1,0)</f>
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="16">
+        <f t="shared" ref="H23:H26" si="5">F23+H22</f>
         <v>63</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="16">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="16">
+        <f t="shared" ref="L23:L26" si="6">DATEDIF($B$4,B23,"d")</f>
         <v>38</v>
       </c>
       <c r="M23" s="13" t="s">
@@ -2002,20 +2009,20 @@
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F26" si="4">IF(D24&lt;&gt;"",(LEN(D24)-LEN(SUBSTITUTE(D24,"&lt;br&gt;","")))/4+1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" ref="H24:H26" si="5">F24+H23</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -2029,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" ref="L24:L26" si="6">DATEDIF($B$4,B24,"d")</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="M24" s="13" t="s">
@@ -2046,23 +2053,22 @@
       <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="15" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+      <c r="D25" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>5</v>
@@ -2087,29 +2093,29 @@
         <v>5</v>
       </c>
       <c r="B26" s="22">
-        <f t="shared" ref="B25:B30" ca="1" si="7">TODAY()</f>
+        <f t="shared" ref="B26:B30" ca="1" si="7">TODAY()</f>
         <v>44777</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <f>D34</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="24">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>5</v>
@@ -2141,22 +2147,22 @@
         <v>5</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <f>D34</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" ref="F27:F30" si="8">IF(D27&lt;&gt;"",(LEN(D27)-LEN(SUBSTITUTE(D27,"&lt;br&gt;","")))/4+1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" ref="H27:H30" si="9">F27+H26</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>5</v>
@@ -2188,22 +2194,22 @@
         <v>5</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <f>D34</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>5</v>
@@ -2235,22 +2241,22 @@
         <v>5</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <f>D34</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>5</v>
@@ -2282,22 +2288,22 @@
         <v>5</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>D33</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <f>D34</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="24">
         <f t="shared" si="9"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>5</v>
@@ -2347,16 +2353,11 @@
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="58.5" customHeight="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="21" t="str">
-        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D34,"&lt;br&gt;",""),D35))</f>
-        <v>[P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java) &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
       <c r="G33" s="4"/>
@@ -2367,16 +2368,15 @@
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="58.5" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="1">
-        <f>ROW()</f>
-        <v>34</v>
+      <c r="B34" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="12" t="str">
-        <f>引用地址!H2</f>
-        <v xml:space="preserve"> &lt;br&gt; [P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java)</v>
+      <c r="D34" s="21" t="str">
+        <f>TRIM(_xlfn.CONCAT(SUBSTITUTE(D35,"&lt;br&gt;","")))</f>
+        <v>[](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -2389,14 +2389,25 @@
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
       <c r="B35" s="1">
         <f>ROW()</f>
         <v>35</v>
       </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="12" t="str">
-        <f>引用地址!H3</f>
-        <v xml:space="preserve"> &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
-      </c>
+        <f>引用地址!H2</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13">
       <c r="B36" s="1">
@@ -2404,7 +2415,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="12" t="str">
-        <f>引用地址!H4</f>
+        <f>引用地址!H3</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2414,7 +2425,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f>引用地址!H5</f>
+        <f>引用地址!H4</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2424,7 +2435,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f>引用地址!H6</f>
+        <f>引用地址!H5</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2434,7 +2445,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f>引用地址!H7</f>
+        <f>引用地址!H6</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2444,7 +2455,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>引用地址!H8</f>
+        <f>引用地址!H7</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
@@ -2454,21 +2465,28 @@
         <v>41</v>
       </c>
       <c r="D41" s="12" t="str">
+        <f>引用地址!H8</f>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="1">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="D42" s="12" t="str">
         <f>引用地址!H9</f>
         <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="D42" s="1"/>
-    </row>
     <row r="43" spans="1:13">
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="D44" s="11"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="D45" s="1"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:13">
       <c r="D46" s="1"/>
@@ -2478,6 +2496,9 @@
     </row>
     <row r="48" spans="1:13">
       <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2494,7 +2515,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2520,59 +2541,49 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>169</v>
-      </c>
       <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f t="shared" ref="F2:F7" si="0">D2</f>
-        <v>P169_MajorityElement</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT(B2,C2,D2,E2,F2,G2)</f>
-        <v xml:space="preserve"> &lt;br&gt; [P169_MajorityElement](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P169_MajorityElement.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>171</v>
-      </c>
       <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>189</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>P171_ExcelSheetColumnNumber</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> &lt;br&gt; [P171_ExcelSheetColumnNumber](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P171_ExcelSheetColumnNumber.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3394,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD25BF9-14EC-4CAE-B975-66297B46CE1A}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:XFD171"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4453,50 +4464,56 @@
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="8">
+        <v>14</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="10" t="str">
+        <v>P39_CombinationSum</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy05/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P39_CombinationSum](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P39_CombinationSum.java)</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="8">
+        <v>14</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="10" t="str">
+        <v>P40_CombinationSumIi</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy06/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P40_CombinationSumIi](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P40_CombinationSumIi.java)</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4510,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="3"/>
@@ -4535,7 +4552,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="3"/>
@@ -4553,25 +4570,28 @@
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
+      <c r="B43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="8">
+        <v>14</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="10" t="str">
+        <v>P43_MultiplyStrings</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy09/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P43_MultiplyStrings](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P43_MultiplyStrings.java)</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4585,7 +4605,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="3"/>
@@ -4610,7 +4630,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="3"/>
@@ -4628,25 +4648,28 @@
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="8">
+        <v>14</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="10" t="str">
+        <v>P46_Permutations</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy12/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P46_Permutations](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P46_Permutations.java)</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4660,7 +4683,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" si="3"/>
@@ -4678,50 +4701,56 @@
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
+      <c r="B48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="8">
+        <v>14</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="10" t="str">
+        <v>P48_RotateImage</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy14/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P48_RotateImage](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P48_RotateImage.java)</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
+      <c r="B49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="8">
+        <v>14</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H49" s="10" t="str">
+        <v>P49_GroupAnagrams</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &lt;br&gt; [](https://github.com/behappy15/LeetCodeSolution/tree/master/src/leetcode/editor/cn/0.java)</v>
+        <v xml:space="preserve"> &lt;br&gt; [P49_GroupAnagrams](https://github.com/behappy00/LeetCodeSolution/tree/master/src/leetcode/editor/cn/P49_GroupAnagrams.java)</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4735,7 +4764,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="3"/>
@@ -4760,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" si="3"/>
@@ -4785,7 +4814,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" si="3"/>
@@ -4813,7 +4842,7 @@
         <v>93</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="3"/>
@@ -4838,7 +4867,7 @@
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" si="3"/>
@@ -4863,7 +4892,7 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" si="3"/>
@@ -4888,7 +4917,7 @@
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" si="3"/>
@@ -4913,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" si="3"/>
@@ -4938,7 +4967,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" si="3"/>
@@ -4963,7 +4992,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" si="3"/>
@@ -4988,7 +5017,7 @@
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" si="3"/>
@@ -5013,7 +5042,7 @@
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" si="3"/>
@@ -5038,7 +5067,7 @@
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F62" s="8">
         <f t="shared" si="3"/>
@@ -5063,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" si="3"/>
@@ -5088,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" si="3"/>
@@ -5113,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" si="3"/>
@@ -5138,7 +5167,7 @@
         <v>86</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>14</v>
@@ -5166,7 +5195,7 @@
         <v>86</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>14</v>
@@ -5194,7 +5223,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" si="3"/>
@@ -5219,7 +5248,7 @@
         <v>86</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>14</v>
@@ -5247,7 +5276,7 @@
         <v>86</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>14</v>
@@ -5275,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F71" s="8">
         <f t="shared" si="3"/>
@@ -5300,7 +5329,7 @@
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F72" s="8">
         <f t="shared" si="3"/>
@@ -5325,7 +5354,7 @@
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F73" s="8">
         <f t="shared" si="3"/>
@@ -5350,7 +5379,7 @@
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F74" s="8">
         <f t="shared" si="3"/>
@@ -5375,7 +5404,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F75" s="8">
         <f t="shared" si="3"/>
@@ -5400,7 +5429,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F76" s="8">
         <f t="shared" si="3"/>
@@ -5425,7 +5454,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F77" s="8">
         <f t="shared" si="3"/>
@@ -5450,7 +5479,7 @@
         <v>86</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F78" s="8">
         <f t="shared" si="3"/>
@@ -5475,7 +5504,7 @@
         <v>86</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F79" s="8">
         <f t="shared" si="3"/>
@@ -5500,7 +5529,7 @@
         <v>86</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F80" s="8">
         <f t="shared" si="3"/>
@@ -5525,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F81" s="8">
         <f t="shared" si="3"/>
@@ -5550,7 +5579,7 @@
         <v>13</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F82" s="8">
         <f t="shared" si="3"/>
@@ -5575,7 +5604,7 @@
         <v>86</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>14</v>
@@ -5603,7 +5632,7 @@
         <v>86</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F84" s="8">
         <f t="shared" si="3"/>
@@ -5628,7 +5657,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F85" s="8">
         <f t="shared" si="3"/>
@@ -5653,7 +5682,7 @@
         <v>86</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F86" s="8">
         <f t="shared" si="3"/>
@@ -5678,7 +5707,7 @@
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F87" s="8">
         <f t="shared" si="3"/>
@@ -5703,7 +5732,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>14</v>
@@ -5731,7 +5760,7 @@
         <v>13</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" si="3"/>
@@ -5756,7 +5785,7 @@
         <v>86</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F90" s="8">
         <f t="shared" si="3"/>
@@ -5781,7 +5810,7 @@
         <v>86</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F91" s="8">
         <f t="shared" si="3"/>
@@ -5806,7 +5835,7 @@
         <v>86</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F92" s="8">
         <f t="shared" si="3"/>
@@ -5831,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F93" s="8">
         <f t="shared" si="3"/>
@@ -5856,7 +5885,7 @@
         <v>86</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>14</v>
@@ -5884,7 +5913,7 @@
         <v>13</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F95" s="8">
         <f t="shared" ref="F95:F100" si="7">D95</f>
@@ -5909,7 +5938,7 @@
         <v>86</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F96" s="8">
         <f t="shared" si="7"/>
@@ -5934,7 +5963,7 @@
         <v>86</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F97" s="8">
         <f t="shared" si="7"/>
@@ -5959,7 +5988,7 @@
         <v>86</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F98" s="8">
         <f t="shared" si="7"/>
@@ -5984,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F99" s="8">
         <f t="shared" si="7"/>
@@ -6009,7 +6038,7 @@
         <v>86</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>14</v>
@@ -6037,19 +6066,19 @@
         <v>86</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H101" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6063,7 +6092,7 @@
         <v>86</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F102" s="8">
         <f t="shared" ref="F102:F165" si="9">D102</f>
@@ -6088,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F103" s="8">
         <f t="shared" si="9"/>
@@ -6113,7 +6142,7 @@
         <v>86</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>14</v>
@@ -6141,7 +6170,7 @@
         <v>86</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F105" s="8">
         <f t="shared" si="9"/>
@@ -6166,7 +6195,7 @@
         <v>86</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F106" s="8">
         <f t="shared" si="9"/>
@@ -6216,7 +6245,7 @@
         <v>86</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>14</v>
@@ -6244,7 +6273,7 @@
         <v>86</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F109" s="8">
         <f t="shared" si="9"/>
@@ -6269,7 +6298,7 @@
         <v>86</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>14</v>
@@ -6297,7 +6326,7 @@
         <v>86</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>14</v>
@@ -6325,7 +6354,7 @@
         <v>86</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>14</v>
@@ -6353,7 +6382,7 @@
         <v>86</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F113" s="8">
         <f t="shared" si="9"/>
@@ -6428,7 +6457,7 @@
         <v>86</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F116" s="8">
         <f t="shared" si="9"/>
@@ -6453,7 +6482,7 @@
         <v>86</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F117" s="8">
         <f t="shared" si="9"/>
@@ -6478,7 +6507,7 @@
         <v>86</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>14</v>
@@ -6506,7 +6535,7 @@
         <v>86</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>14</v>
@@ -6534,7 +6563,7 @@
         <v>86</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F120" s="8">
         <f t="shared" si="9"/>
@@ -6559,19 +6588,19 @@
         <v>86</v>
       </c>
       <c r="D121" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>167</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H121" t="s">
         <v>173</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" t="s">
-        <v>173</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H121" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6610,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F123" s="8">
         <f t="shared" si="9"/>
@@ -6635,7 +6664,7 @@
         <v>86</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F124" s="8">
         <f t="shared" si="9"/>
@@ -6660,19 +6689,19 @@
         <v>86</v>
       </c>
       <c r="D125" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G125" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G125" t="s">
-        <v>87</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6686,7 +6715,7 @@
         <v>86</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F126" s="8">
         <f t="shared" si="9"/>
@@ -6711,7 +6740,7 @@
         <v>13</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F127" s="8">
         <f t="shared" si="9"/>
@@ -6786,7 +6815,7 @@
         <v>86</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F130" s="8">
         <f t="shared" si="9"/>
@@ -6811,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F131" s="8">
         <f t="shared" si="9"/>
@@ -6836,7 +6865,7 @@
         <v>86</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F132" s="8">
         <f t="shared" si="9"/>
@@ -6861,7 +6890,7 @@
         <v>86</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F133" s="8">
         <f t="shared" si="9"/>
@@ -6886,7 +6915,7 @@
         <v>86</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F134" s="8">
         <f t="shared" si="9"/>
@@ -6936,19 +6965,19 @@
         <v>86</v>
       </c>
       <c r="D136" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H136" t="s">
         <v>175</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H136" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6962,7 +6991,7 @@
         <v>86</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F137" s="8">
         <f t="shared" si="9"/>
@@ -6987,7 +7016,7 @@
         <v>86</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F138" s="8">
         <f t="shared" si="9"/>
@@ -7012,7 +7041,7 @@
         <v>13</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F139" s="8">
         <f t="shared" si="9"/>
@@ -7037,7 +7066,7 @@
         <v>86</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F140" s="8">
         <f t="shared" si="9"/>
@@ -7062,19 +7091,19 @@
         <v>86</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" t="s">
+        <v>87</v>
+      </c>
+      <c r="H141" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G141" t="s">
-        <v>87</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7138,7 +7167,7 @@
         <v>86</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>14</v>
@@ -7166,7 +7195,7 @@
         <v>86</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>14</v>
@@ -7194,7 +7223,7 @@
         <v>86</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F146" s="8">
         <f t="shared" si="9"/>
@@ -7219,7 +7248,7 @@
         <v>13</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F147" s="8">
         <f t="shared" si="9"/>
@@ -7244,7 +7273,7 @@
         <v>86</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F148" s="8">
         <f t="shared" si="9"/>
@@ -7319,7 +7348,7 @@
         <v>13</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F151" s="8">
         <f t="shared" si="9"/>
@@ -7344,7 +7373,7 @@
         <v>86</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F152" s="8">
         <f t="shared" si="9"/>
@@ -7369,7 +7398,7 @@
         <v>86</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F153" s="8">
         <f t="shared" si="9"/>
@@ -7394,7 +7423,7 @@
         <v>86</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F154" s="8">
         <f t="shared" si="9"/>
@@ -7419,7 +7448,7 @@
         <v>13</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F155" s="8">
         <f t="shared" si="9"/>
@@ -7494,7 +7523,7 @@
         <v>86</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F158" s="8">
         <f t="shared" si="9"/>
@@ -7519,7 +7548,7 @@
         <v>13</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F159" s="8">
         <f t="shared" si="9"/>
@@ -7544,7 +7573,7 @@
         <v>86</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>14</v>
@@ -7572,7 +7601,7 @@
         <v>86</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F161" s="8">
         <f t="shared" si="9"/>
@@ -7597,7 +7626,7 @@
         <v>86</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F162" s="8">
         <f t="shared" si="9"/>
@@ -7672,7 +7701,7 @@
         <v>86</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F165" s="8">
         <f t="shared" si="9"/>
@@ -7697,7 +7726,7 @@
         <v>86</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F166" s="8">
         <f t="shared" ref="F166:F221" si="11">D166</f>
@@ -7722,7 +7751,7 @@
         <v>13</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F167" s="8">
         <f t="shared" si="11"/>
@@ -7747,7 +7776,7 @@
         <v>86</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>14</v>
@@ -7775,7 +7804,7 @@
         <v>86</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>14</v>
@@ -7828,7 +7857,7 @@
         <v>86</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>14</v>
@@ -7856,7 +7885,7 @@
         <v>86</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F172" s="8">
         <f t="shared" si="11"/>
@@ -7881,7 +7910,7 @@
         <v>86</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F173" s="8">
         <f t="shared" si="11"/>
@@ -7906,7 +7935,7 @@
         <v>86</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F174" s="8">
         <f t="shared" si="11"/>
@@ -7931,7 +7960,7 @@
         <v>13</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F175" s="8">
         <f t="shared" si="11"/>
@@ -7956,7 +7985,7 @@
         <v>86</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F176" s="8">
         <f t="shared" si="11"/>
@@ -8031,7 +8060,7 @@
         <v>13</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F179" s="8">
         <f t="shared" si="11"/>
@@ -8056,7 +8085,7 @@
         <v>86</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F180" s="8">
         <f t="shared" si="11"/>
@@ -8081,7 +8110,7 @@
         <v>86</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F181" s="8">
         <f t="shared" si="11"/>
@@ -8106,7 +8135,7 @@
         <v>86</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F182" s="8">
         <f t="shared" si="11"/>
@@ -8131,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F183" s="8">
         <f t="shared" si="11"/>
@@ -8206,7 +8235,7 @@
         <v>86</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F186" s="8">
         <f t="shared" si="11"/>
@@ -8231,7 +8260,7 @@
         <v>13</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F187" s="8">
         <f t="shared" si="11"/>
@@ -8256,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F188" s="8">
         <f t="shared" si="11"/>
@@ -8281,7 +8310,7 @@
         <v>86</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F189" s="8">
         <f t="shared" si="11"/>
@@ -8306,7 +8335,7 @@
         <v>86</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F190" s="8">
         <f t="shared" si="11"/>
@@ -8381,7 +8410,7 @@
         <v>86</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F193" s="8">
         <f t="shared" si="11"/>
@@ -8406,7 +8435,7 @@
         <v>86</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F194" s="8">
         <f t="shared" si="11"/>
@@ -8431,7 +8460,7 @@
         <v>13</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F195" s="8">
         <f t="shared" si="11"/>
@@ -8456,7 +8485,7 @@
         <v>86</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F196" s="8">
         <f t="shared" si="11"/>
@@ -8481,7 +8510,7 @@
         <v>86</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F197" s="8">
         <f t="shared" si="11"/>
@@ -8556,7 +8585,7 @@
         <v>86</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F200" s="8">
         <f t="shared" si="11"/>
@@ -8581,7 +8610,7 @@
         <v>86</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F201" s="8">
         <f t="shared" si="11"/>
@@ -8606,7 +8635,7 @@
         <v>13</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F202" s="8">
         <f t="shared" si="11"/>
@@ -8631,7 +8660,7 @@
         <v>86</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F203" s="8">
         <f t="shared" si="11"/>
@@ -8656,7 +8685,7 @@
         <v>86</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F204" s="8">
         <f t="shared" si="11"/>
@@ -8731,7 +8760,7 @@
         <v>86</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F207" s="8">
         <f t="shared" si="11"/>
@@ -8756,7 +8785,7 @@
         <v>13</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F208" s="8">
         <f t="shared" si="11"/>
@@ -8781,7 +8810,7 @@
         <v>86</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F209" s="8">
         <f t="shared" si="11"/>
@@ -8806,7 +8835,7 @@
         <v>86</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F210" s="8">
         <f t="shared" si="11"/>
@@ -8831,7 +8860,7 @@
         <v>13</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F211" s="8">
         <f t="shared" si="11"/>
@@ -8906,7 +8935,7 @@
         <v>13</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F214" s="8">
         <f t="shared" si="11"/>
@@ -8931,7 +8960,7 @@
         <v>86</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F215" s="8">
         <f t="shared" si="11"/>
@@ -8956,7 +8985,7 @@
         <v>86</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F216" s="8">
         <f t="shared" si="11"/>
@@ -8981,7 +9010,7 @@
         <v>13</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F217" s="8">
         <f t="shared" si="11"/>
@@ -9006,7 +9035,7 @@
         <v>86</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F218" s="8">
         <f t="shared" si="11"/>
@@ -9081,7 +9110,7 @@
         <v>13</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F221" s="8">
         <f t="shared" si="11"/>
